--- a/JupyterNotebooks/AvgHW/ShearF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,19 +635,19 @@
         <v>0.998280824243695</v>
       </c>
       <c r="F3">
+        <v>1.006682875984724</v>
+      </c>
+      <c r="G3">
+        <v>0.9983203792005639</v>
+      </c>
+      <c r="H3">
         <v>0.9984165034208764</v>
       </c>
-      <c r="G3">
-        <v>0.995389684698071</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.9953896846980712</v>
+      </c>
+      <c r="J3">
         <v>1.003706984602589</v>
-      </c>
-      <c r="I3">
-        <v>0.9983203792005637</v>
-      </c>
-      <c r="J3">
-        <v>1.006682875984724</v>
       </c>
       <c r="K3">
         <v>0.9984165034208764</v>
@@ -728,7 +680,7 @@
         <v>1.00013287535842</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -745,19 +697,19 @@
         <v>0.996681417728606</v>
       </c>
       <c r="F4">
+        <v>1.012901734907552</v>
+      </c>
+      <c r="G4">
+        <v>0.9967574553995612</v>
+      </c>
+      <c r="H4">
         <v>0.9969422320005472</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.9911007671395456</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.007156316701217</v>
-      </c>
-      <c r="I4">
-        <v>0.9967574553995611</v>
-      </c>
-      <c r="J4">
-        <v>1.012901734907552</v>
       </c>
       <c r="K4">
         <v>0.9969422320005472</v>
@@ -790,7 +742,7 @@
         <v>1.000256653979505</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -807,19 +759,19 @@
         <v>0.9936456756579407</v>
       </c>
       <c r="F5">
+        <v>1.024734959273292</v>
+      </c>
+      <c r="G5">
+        <v>0.9937849243453009</v>
+      </c>
+      <c r="H5">
         <v>0.994123307797587</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.982964154595072</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.013714773337744</v>
-      </c>
-      <c r="I5">
-        <v>0.9937849243453009</v>
-      </c>
-      <c r="J5">
-        <v>1.024734959273292</v>
       </c>
       <c r="K5">
         <v>0.994123307797587</v>
@@ -852,7 +804,7 @@
         <v>1.000494632501156</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -869,19 +821,19 @@
         <v>0.9906831015495905</v>
       </c>
       <c r="F6">
+        <v>1.036283888575724</v>
+      </c>
+      <c r="G6">
+        <v>0.9908838550960989</v>
+      </c>
+      <c r="H6">
         <v>0.991371668182053</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.9750237956878859</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1.020115499873508</v>
-      </c>
-      <c r="I6">
-        <v>0.9908838550960989</v>
-      </c>
-      <c r="J6">
-        <v>1.036283888575724</v>
       </c>
       <c r="K6">
         <v>0.991371668182053</v>
@@ -914,7 +866,7 @@
         <v>1.00072696816081</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998827501451564</v>
+        <v>0.9998827501451563</v>
       </c>
       <c r="D7">
         <v>1.000446266389896</v>
@@ -931,22 +883,22 @@
         <v>0.9998915905350169</v>
       </c>
       <c r="F7">
-        <v>0.9998827501451564</v>
+        <v>1.000446266389896</v>
       </c>
       <c r="G7">
+        <v>0.9998890118568226</v>
+      </c>
+      <c r="H7">
+        <v>0.9998827501451563</v>
+      </c>
+      <c r="I7">
         <v>0.9997125897489934</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1.000243402923784</v>
       </c>
-      <c r="I7">
-        <v>0.9998890118568228</v>
-      </c>
-      <c r="J7">
-        <v>1.000446266389896</v>
-      </c>
       <c r="K7">
-        <v>0.9998827501451564</v>
+        <v>0.9998827501451563</v>
       </c>
       <c r="L7">
         <v>0.9998915905350169</v>
@@ -976,7 +928,7 @@
         <v>1.000010935266612</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -993,19 +945,19 @@
         <v>0.9997466848079257</v>
       </c>
       <c r="F8">
+        <v>1.001037090759158</v>
+      </c>
+      <c r="G8">
+        <v>0.9997418200285424</v>
+      </c>
+      <c r="H8">
         <v>0.9997300033019333</v>
       </c>
-      <c r="G8">
-        <v>0.9993276679494378</v>
-      </c>
-      <c r="H8">
+      <c r="I8">
+        <v>0.9993276679494379</v>
+      </c>
+      <c r="J8">
         <v>1.000566541628783</v>
-      </c>
-      <c r="I8">
-        <v>0.9997418200285422</v>
-      </c>
-      <c r="J8">
-        <v>1.001037090759158</v>
       </c>
       <c r="K8">
         <v>0.9997300033019333</v>
@@ -1038,7 +990,7 @@
         <v>1.000024968079297</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996493323894974</v>
+        <v>0.9996493323894972</v>
       </c>
       <c r="D9">
         <v>1.001375884524083</v>
@@ -1055,22 +1007,22 @@
         <v>0.9996597484487062</v>
       </c>
       <c r="F9">
-        <v>0.9996493323894974</v>
+        <v>1.001375884524083</v>
       </c>
       <c r="G9">
+        <v>0.9996567106590847</v>
+      </c>
+      <c r="H9">
+        <v>0.9996493323894972</v>
+      </c>
+      <c r="I9">
         <v>0.9990946448547211</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>1.000754328260677</v>
       </c>
-      <c r="I9">
-        <v>0.9996567106590847</v>
-      </c>
-      <c r="J9">
-        <v>1.001375884524083</v>
-      </c>
       <c r="K9">
-        <v>0.9996493323894974</v>
+        <v>0.9996493323894972</v>
       </c>
       <c r="L9">
         <v>0.9996597484487062</v>
@@ -1100,7 +1052,7 @@
         <v>1.000031774856128</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,34 +1066,34 @@
         <v>1.003043067328038</v>
       </c>
       <c r="E10">
-        <v>0.9992531112813164</v>
+        <v>0.9992531112813167</v>
       </c>
       <c r="F10">
+        <v>1.003043067328038</v>
+      </c>
+      <c r="G10">
+        <v>0.9992417806078145</v>
+      </c>
+      <c r="H10">
         <v>0.9992142521063629</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.998015698339994</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1.001664696742958</v>
-      </c>
-      <c r="I10">
-        <v>0.9992417806078145</v>
-      </c>
-      <c r="J10">
-        <v>1.003043067328038</v>
       </c>
       <c r="K10">
         <v>0.9992142521063629</v>
       </c>
       <c r="L10">
-        <v>0.9992531112813164</v>
+        <v>0.9992531112813167</v>
       </c>
       <c r="M10">
-        <v>1.001148089304677</v>
+        <v>1.001148089304678</v>
       </c>
       <c r="N10">
-        <v>1.001148089304677</v>
+        <v>1.001148089304678</v>
       </c>
       <c r="O10">
         <v>1.001320291784104</v>
@@ -1162,7 +1114,7 @@
         <v>1.000072101067747</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1179,19 +1131,19 @@
         <v>0.9988022880813106</v>
       </c>
       <c r="F11">
+        <v>1.004827798530688</v>
+      </c>
+      <c r="G11">
+        <v>0.9987947453535956</v>
+      </c>
+      <c r="H11">
         <v>0.9987764178989033</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.9968110297997075</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>1.002649307173324</v>
-      </c>
-      <c r="I11">
-        <v>0.9987947453535956</v>
-      </c>
-      <c r="J11">
-        <v>1.004827798530688</v>
       </c>
       <c r="K11">
         <v>0.9987764178989033</v>
@@ -1224,7 +1176,7 @@
         <v>1.000110264472922</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,25 +1187,25 @@
         <v>1.014369839509032</v>
       </c>
       <c r="D12">
-        <v>0.9637354397832228</v>
+        <v>0.9637354397832227</v>
       </c>
       <c r="E12">
         <v>1.006119641121082</v>
       </c>
       <c r="F12">
+        <v>0.9637354397832227</v>
+      </c>
+      <c r="G12">
+        <v>1.008524948117354</v>
+      </c>
+      <c r="H12">
         <v>1.014369839509032</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1.014747592515798</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.9819638286793322</v>
-      </c>
-      <c r="I12">
-        <v>1.008524948117354</v>
-      </c>
-      <c r="J12">
-        <v>0.9637354397832228</v>
       </c>
       <c r="K12">
         <v>1.014369839509032</v>
@@ -1286,7 +1238,7 @@
         <v>0.9982435482876367</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,25 +1249,25 @@
         <v>0.9994418808283211</v>
       </c>
       <c r="D13">
-        <v>0.9933063835955649</v>
+        <v>0.993306383595565</v>
       </c>
       <c r="E13">
         <v>1.002913139413011</v>
       </c>
       <c r="F13">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="G13">
+        <v>1.001901106146708</v>
+      </c>
+      <c r="H13">
         <v>0.9994418808283211</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1.008429562082902</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.9955151642948434</v>
-      </c>
-      <c r="I13">
-        <v>1.001901106146708</v>
-      </c>
-      <c r="J13">
-        <v>0.9933063835955649</v>
       </c>
       <c r="K13">
         <v>0.9994418808283211</v>
@@ -1348,7 +1300,7 @@
         <v>1.000251206060225</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1365,19 +1317,19 @@
         <v>1.019860629219225</v>
       </c>
       <c r="F14">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="G14">
+        <v>1.018942583935212</v>
+      </c>
+      <c r="H14">
         <v>1.016711760342585</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1.053561470836624</v>
       </c>
-      <c r="H14">
-        <v>0.9580519823176035</v>
-      </c>
-      <c r="I14">
-        <v>1.018942583935212</v>
-      </c>
       <c r="J14">
-        <v>0.92505585301876</v>
+        <v>0.9580519823176037</v>
       </c>
       <c r="K14">
         <v>1.016711760342585</v>
@@ -1410,7 +1362,7 @@
         <v>0.9986973799450016</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,25 +1373,25 @@
         <v>1.005927421620521</v>
       </c>
       <c r="D15">
-        <v>0.9796151116138745</v>
+        <v>0.9796151116138746</v>
       </c>
       <c r="E15">
         <v>1.004634448438814</v>
       </c>
       <c r="F15">
+        <v>0.9796151116138746</v>
+      </c>
+      <c r="G15">
+        <v>1.00501141069853</v>
+      </c>
+      <c r="H15">
         <v>1.005927421620521</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1.012112248171304</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.9890875483263279</v>
-      </c>
-      <c r="I15">
-        <v>1.00501141069853</v>
-      </c>
-      <c r="J15">
-        <v>0.9796151116138745</v>
       </c>
       <c r="K15">
         <v>1.005927421620521</v>
@@ -1472,7 +1424,7 @@
         <v>0.9993980314782287</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999837951951559</v>
+        <v>0.9688758124299928</v>
       </c>
       <c r="D16">
-        <v>1.000033542013678</v>
+        <v>1.130475756588137</v>
       </c>
       <c r="E16">
-        <v>0.9999959583051831</v>
+        <v>0.9665506452570605</v>
       </c>
       <c r="F16">
-        <v>0.9999837951951559</v>
+        <v>1.130475756588137</v>
       </c>
       <c r="G16">
-        <v>0.9999915368186429</v>
+        <v>0.9672285296489703</v>
       </c>
       <c r="H16">
-        <v>1.000015635461891</v>
+        <v>0.9688758124299928</v>
       </c>
       <c r="I16">
-        <v>0.9999924109408161</v>
+        <v>0.9103588222141746</v>
       </c>
       <c r="J16">
-        <v>1.000033542013678</v>
+        <v>1.072299786732198</v>
       </c>
       <c r="K16">
-        <v>0.9999837951951559</v>
+        <v>0.9688758124299928</v>
       </c>
       <c r="L16">
-        <v>0.9999959583051831</v>
+        <v>0.9665506452570605</v>
       </c>
       <c r="M16">
-        <v>1.00001475015943</v>
+        <v>1.048513200922599</v>
       </c>
       <c r="N16">
-        <v>1.00001475015943</v>
+        <v>1.048513200922599</v>
       </c>
       <c r="O16">
-        <v>1.000015045260251</v>
+        <v>1.056442062859132</v>
       </c>
       <c r="P16">
-        <v>1.000004431838005</v>
+        <v>1.021967404758397</v>
       </c>
       <c r="Q16">
-        <v>1.000004431838005</v>
+        <v>1.021967404758397</v>
       </c>
       <c r="R16">
-        <v>0.999999272677293</v>
+        <v>1.008694506676296</v>
       </c>
       <c r="S16">
-        <v>0.999999272677293</v>
+        <v>1.008694506676296</v>
       </c>
       <c r="T16">
-        <v>1.000002146455895</v>
+        <v>1.002631558811756</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.999850373113443</v>
+        <v>0.9740107691611229</v>
       </c>
       <c r="D17">
-        <v>1.000591287493226</v>
+        <v>1.107021749341802</v>
       </c>
       <c r="E17">
-        <v>0.999853180550645</v>
+        <v>0.9728188935891064</v>
       </c>
       <c r="F17">
-        <v>0.999850373113443</v>
+        <v>1.107021749341802</v>
       </c>
       <c r="G17">
-        <v>0.9996090144214873</v>
+        <v>0.9731663740820091</v>
       </c>
       <c r="H17">
-        <v>1.000324561050013</v>
+        <v>0.9740107691611229</v>
       </c>
       <c r="I17">
-        <v>0.9998523610804045</v>
+        <v>0.9272900186076858</v>
       </c>
       <c r="J17">
-        <v>1.000591287493226</v>
+        <v>1.059137804364969</v>
       </c>
       <c r="K17">
-        <v>0.999850373113443</v>
+        <v>0.9740107691611229</v>
       </c>
       <c r="L17">
-        <v>0.999853180550645</v>
+        <v>0.9728188935891064</v>
       </c>
       <c r="M17">
-        <v>1.000222234021936</v>
+        <v>1.039920321465454</v>
       </c>
       <c r="N17">
-        <v>1.000222234021936</v>
+        <v>1.039920321465454</v>
       </c>
       <c r="O17">
-        <v>1.000256343031295</v>
+        <v>1.046326149098626</v>
       </c>
       <c r="P17">
-        <v>1.000098280385771</v>
+        <v>1.017950470697344</v>
       </c>
       <c r="Q17">
-        <v>1.000098280385771</v>
+        <v>1.017950470697344</v>
       </c>
       <c r="R17">
-        <v>1.000036303567689</v>
+        <v>1.006965545313288</v>
       </c>
       <c r="S17">
-        <v>1.000036303567689</v>
+        <v>1.006965545313288</v>
       </c>
       <c r="T17">
-        <v>1.000013462951536</v>
+        <v>1.002240934857783</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9995017206906265</v>
+        <v>0.9844069256841594</v>
       </c>
       <c r="D18">
-        <v>1.002064203086009</v>
+        <v>1.059691321762264</v>
       </c>
       <c r="E18">
-        <v>0.9994740786236306</v>
+        <v>0.9854495268943106</v>
       </c>
       <c r="F18">
-        <v>0.9995017206906265</v>
+        <v>1.059691321762264</v>
       </c>
       <c r="G18">
-        <v>0.9985922663097387</v>
+        <v>0.9851455617736108</v>
       </c>
       <c r="H18">
-        <v>1.001141712634882</v>
+        <v>0.9844069256841594</v>
       </c>
       <c r="I18">
-        <v>0.9994821330995862</v>
+        <v>0.9613973261401062</v>
       </c>
       <c r="J18">
-        <v>1.002064203086009</v>
+        <v>1.032588945575998</v>
       </c>
       <c r="K18">
-        <v>0.9995017206906265</v>
+        <v>0.9844069256841594</v>
       </c>
       <c r="L18">
-        <v>0.9994740786236306</v>
+        <v>0.9854495268943106</v>
       </c>
       <c r="M18">
-        <v>1.00076914085482</v>
+        <v>1.022570424328287</v>
       </c>
       <c r="N18">
-        <v>1.00076914085482</v>
+        <v>1.022570424328287</v>
       </c>
       <c r="O18">
-        <v>1.000893331448174</v>
+        <v>1.025909931410858</v>
       </c>
       <c r="P18">
-        <v>1.000346667466755</v>
+        <v>1.009849258113578</v>
       </c>
       <c r="Q18">
-        <v>1.000346667466755</v>
+        <v>1.009849258113578</v>
       </c>
       <c r="R18">
-        <v>1.000135430772723</v>
+        <v>1.003488675006223</v>
       </c>
       <c r="S18">
-        <v>1.000135430772723</v>
+        <v>1.003488675006223</v>
       </c>
       <c r="T18">
-        <v>1.000042685740745</v>
+        <v>1.001446601305075</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9826808153397703</v>
+      </c>
+      <c r="D19">
+        <v>1.065273601121967</v>
+      </c>
+      <c r="E19">
+        <v>0.9842375901251185</v>
+      </c>
+      <c r="F19">
+        <v>1.065273601121967</v>
+      </c>
+      <c r="G19">
+        <v>0.9837837174437928</v>
+      </c>
+      <c r="H19">
+        <v>0.9826808153397703</v>
+      </c>
+      <c r="I19">
+        <v>0.958263434481346</v>
+      </c>
+      <c r="J19">
+        <v>1.035540200161451</v>
+      </c>
+      <c r="K19">
+        <v>0.9826808153397703</v>
+      </c>
+      <c r="L19">
+        <v>0.9842375901251185</v>
+      </c>
+      <c r="M19">
+        <v>1.024755595623543</v>
+      </c>
+      <c r="N19">
+        <v>1.024755595623543</v>
+      </c>
+      <c r="O19">
+        <v>1.028350463802846</v>
+      </c>
+      <c r="P19">
+        <v>1.010730668862285</v>
+      </c>
+      <c r="Q19">
+        <v>1.010730668862285</v>
+      </c>
+      <c r="R19">
+        <v>1.003718205481657</v>
+      </c>
+      <c r="S19">
+        <v>1.003718205481657</v>
+      </c>
+      <c r="T19">
+        <v>1.001629893112241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999837951951559</v>
+      </c>
+      <c r="D20">
+        <v>1.000033542013678</v>
+      </c>
+      <c r="E20">
+        <v>0.9999959583051831</v>
+      </c>
+      <c r="F20">
+        <v>1.000033542013678</v>
+      </c>
+      <c r="G20">
+        <v>0.9999924109408161</v>
+      </c>
+      <c r="H20">
+        <v>0.9999837951951559</v>
+      </c>
+      <c r="I20">
+        <v>0.9999915368186429</v>
+      </c>
+      <c r="J20">
+        <v>1.000015635461891</v>
+      </c>
+      <c r="K20">
+        <v>0.9999837951951559</v>
+      </c>
+      <c r="L20">
+        <v>0.9999959583051831</v>
+      </c>
+      <c r="M20">
+        <v>1.00001475015943</v>
+      </c>
+      <c r="N20">
+        <v>1.00001475015943</v>
+      </c>
+      <c r="O20">
+        <v>1.000015045260251</v>
+      </c>
+      <c r="P20">
+        <v>1.000004431838005</v>
+      </c>
+      <c r="Q20">
+        <v>1.000004431838005</v>
+      </c>
+      <c r="R20">
+        <v>0.999999272677293</v>
+      </c>
+      <c r="S20">
+        <v>0.999999272677293</v>
+      </c>
+      <c r="T20">
+        <v>1.000002146455895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998503731134427</v>
+      </c>
+      <c r="D21">
+        <v>1.000591287493226</v>
+      </c>
+      <c r="E21">
+        <v>0.999853180550645</v>
+      </c>
+      <c r="F21">
+        <v>1.000591287493226</v>
+      </c>
+      <c r="G21">
+        <v>0.9998523610804048</v>
+      </c>
+      <c r="H21">
+        <v>0.9998503731134427</v>
+      </c>
+      <c r="I21">
+        <v>0.9996090144214869</v>
+      </c>
+      <c r="J21">
+        <v>1.000324561050013</v>
+      </c>
+      <c r="K21">
+        <v>0.9998503731134427</v>
+      </c>
+      <c r="L21">
+        <v>0.999853180550645</v>
+      </c>
+      <c r="M21">
+        <v>1.000222234021936</v>
+      </c>
+      <c r="N21">
+        <v>1.000222234021936</v>
+      </c>
+      <c r="O21">
+        <v>1.000256343031295</v>
+      </c>
+      <c r="P21">
+        <v>1.000098280385771</v>
+      </c>
+      <c r="Q21">
+        <v>1.000098280385771</v>
+      </c>
+      <c r="R21">
+        <v>1.000036303567689</v>
+      </c>
+      <c r="S21">
+        <v>1.000036303567689</v>
+      </c>
+      <c r="T21">
+        <v>1.000013462951536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9995017206906265</v>
+      </c>
+      <c r="D22">
+        <v>1.002064203086009</v>
+      </c>
+      <c r="E22">
+        <v>0.9994740786236306</v>
+      </c>
+      <c r="F22">
+        <v>1.002064203086009</v>
+      </c>
+      <c r="G22">
+        <v>0.9994821330995862</v>
+      </c>
+      <c r="H22">
+        <v>0.9995017206906265</v>
+      </c>
+      <c r="I22">
+        <v>0.9985922663097387</v>
+      </c>
+      <c r="J22">
+        <v>1.001141712634882</v>
+      </c>
+      <c r="K22">
+        <v>0.9995017206906265</v>
+      </c>
+      <c r="L22">
+        <v>0.9994740786236306</v>
+      </c>
+      <c r="M22">
+        <v>1.00076914085482</v>
+      </c>
+      <c r="N22">
+        <v>1.00076914085482</v>
+      </c>
+      <c r="O22">
+        <v>1.000893331448174</v>
+      </c>
+      <c r="P22">
+        <v>1.000346667466755</v>
+      </c>
+      <c r="Q22">
+        <v>1.000346667466755</v>
+      </c>
+      <c r="R22">
+        <v>1.000135430772723</v>
+      </c>
+      <c r="S22">
+        <v>1.000135430772723</v>
+      </c>
+      <c r="T22">
+        <v>1.000042685740745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.998862582397678</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1.004817411921165</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>0.9987584562905129</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>1.004817411921165</v>
+      </c>
+      <c r="G23">
+        <v>0.9987888140835085</v>
+      </c>
+      <c r="H23">
         <v>0.998862582397678</v>
       </c>
-      <c r="G19">
+      <c r="I23">
         <v>0.9966693877618064</v>
       </c>
-      <c r="H19">
-        <v>1.002673680877843</v>
-      </c>
-      <c r="I19">
-        <v>0.9987888140835085</v>
-      </c>
-      <c r="J19">
-        <v>1.004817411921165</v>
-      </c>
-      <c r="K19">
+      <c r="J23">
+        <v>1.002673680877842</v>
+      </c>
+      <c r="K23">
         <v>0.998862582397678</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9987584562905129</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.001787934105839</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.001787934105839</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.00208318302984</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000812816869785</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000812816869785</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000325258251759</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000325258251759</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000095055555419</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9984165034208764</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="D3">
-        <v>1.006682875984724</v>
+        <v>1.069832454841497</v>
       </c>
       <c r="E3">
-        <v>0.998280824243695</v>
+        <v>0.9830003622982708</v>
       </c>
       <c r="F3">
-        <v>1.006682875984724</v>
+        <v>1.069832454841497</v>
       </c>
       <c r="G3">
-        <v>0.9983203792005639</v>
+        <v>0.982626094279538</v>
       </c>
       <c r="H3">
-        <v>0.9984165034208764</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="I3">
-        <v>0.9953896846980712</v>
+        <v>0.954912151347261</v>
       </c>
       <c r="J3">
-        <v>1.003706984602589</v>
+        <v>1.038110761476945</v>
       </c>
       <c r="K3">
-        <v>0.9984165034208764</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="L3">
-        <v>0.998280824243695</v>
+        <v>0.9830003622982708</v>
       </c>
       <c r="M3">
-        <v>1.002481850114209</v>
+        <v>1.026416408569884</v>
       </c>
       <c r="N3">
-        <v>1.002481850114209</v>
+        <v>1.026416408569884</v>
       </c>
       <c r="O3">
-        <v>1.002890228277002</v>
+        <v>1.030314526205571</v>
       </c>
       <c r="P3">
-        <v>1.001126734549765</v>
+        <v>1.011516481894812</v>
       </c>
       <c r="Q3">
-        <v>1.001126734549765</v>
+        <v>1.011516481894812</v>
       </c>
       <c r="R3">
-        <v>1.000449176767543</v>
+        <v>1.004066518557276</v>
       </c>
       <c r="S3">
-        <v>1.000449176767543</v>
+        <v>1.004066518557276</v>
       </c>
       <c r="T3">
-        <v>1.00013287535842</v>
+        <v>1.001699742131363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9969422320005472</v>
+        <v>0.983121819980433</v>
       </c>
       <c r="D4">
-        <v>1.012901734907552</v>
+        <v>1.064467359564854</v>
       </c>
       <c r="E4">
-        <v>0.996681417728606</v>
+        <v>0.9843061264554642</v>
       </c>
       <c r="F4">
-        <v>1.012901734907552</v>
+        <v>1.064467359564854</v>
       </c>
       <c r="G4">
-        <v>0.9967574553995612</v>
+        <v>0.983960846088342</v>
       </c>
       <c r="H4">
-        <v>0.9969422320005472</v>
+        <v>0.983121819980433</v>
       </c>
       <c r="I4">
-        <v>0.9911007671395456</v>
+        <v>0.9583752506047347</v>
       </c>
       <c r="J4">
-        <v>1.007156316701217</v>
+        <v>1.035182969127841</v>
       </c>
       <c r="K4">
-        <v>0.9969422320005472</v>
+        <v>0.983121819980433</v>
       </c>
       <c r="L4">
-        <v>0.996681417728606</v>
+        <v>0.9843061264554642</v>
       </c>
       <c r="M4">
-        <v>1.004791576318079</v>
+        <v>1.024386743010159</v>
       </c>
       <c r="N4">
-        <v>1.004791576318079</v>
+        <v>1.024386743010159</v>
       </c>
       <c r="O4">
-        <v>1.005579823112458</v>
+        <v>1.027985485049386</v>
       </c>
       <c r="P4">
-        <v>1.002175128212235</v>
+        <v>1.010631768666917</v>
       </c>
       <c r="Q4">
-        <v>1.002175128212235</v>
+        <v>1.010631768666917</v>
       </c>
       <c r="R4">
-        <v>1.000866904159313</v>
+        <v>1.003754281495296</v>
       </c>
       <c r="S4">
-        <v>1.000866904159313</v>
+        <v>1.003754281495296</v>
       </c>
       <c r="T4">
-        <v>1.000256653979505</v>
+        <v>1.001569061970278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.994123307797587</v>
+        <v>0.9790629669272261</v>
       </c>
       <c r="D5">
-        <v>1.024734959273292</v>
+        <v>1.07997177811321</v>
       </c>
       <c r="E5">
-        <v>0.9936456756579407</v>
+        <v>0.9805315490835605</v>
       </c>
       <c r="F5">
-        <v>1.024734959273292</v>
+        <v>1.07997177811321</v>
       </c>
       <c r="G5">
-        <v>0.9937849243453009</v>
+        <v>0.980103391024259</v>
       </c>
       <c r="H5">
-        <v>0.994123307797587</v>
+        <v>0.9790629669272261</v>
       </c>
       <c r="I5">
-        <v>0.982964154595072</v>
+        <v>0.9483638616172487</v>
       </c>
       <c r="J5">
-        <v>1.013714773337744</v>
+        <v>1.043644611698113</v>
       </c>
       <c r="K5">
-        <v>0.994123307797587</v>
+        <v>0.9790629669272261</v>
       </c>
       <c r="L5">
-        <v>0.9936456756579407</v>
+        <v>0.9805315490835605</v>
       </c>
       <c r="M5">
-        <v>1.009190317465616</v>
+        <v>1.030251663598385</v>
       </c>
       <c r="N5">
-        <v>1.009190317465616</v>
+        <v>1.030251663598385</v>
       </c>
       <c r="O5">
-        <v>1.010698469422992</v>
+        <v>1.034715979631628</v>
       </c>
       <c r="P5">
-        <v>1.004167980909606</v>
+        <v>1.013188764707999</v>
       </c>
       <c r="Q5">
-        <v>1.004167980909606</v>
+        <v>1.013188764707999</v>
       </c>
       <c r="R5">
-        <v>1.001656812631601</v>
+        <v>1.004657315262806</v>
       </c>
       <c r="S5">
-        <v>1.001656812631601</v>
+        <v>1.004657315262806</v>
       </c>
       <c r="T5">
-        <v>1.000494632501156</v>
+        <v>1.001946359743936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.991371668182053</v>
+        <v>0.9766030237499996</v>
       </c>
       <c r="D6">
-        <v>1.036283888575724</v>
+        <v>1.089379861931818</v>
       </c>
       <c r="E6">
-        <v>0.9906831015495905</v>
+        <v>0.9782394757954556</v>
       </c>
       <c r="F6">
-        <v>1.036283888575724</v>
+        <v>1.089379861931818</v>
       </c>
       <c r="G6">
-        <v>0.9908838550960989</v>
+        <v>0.9777623777272737</v>
       </c>
       <c r="H6">
-        <v>0.991371668182053</v>
+        <v>0.9766030237499996</v>
       </c>
       <c r="I6">
-        <v>0.9750237956878859</v>
+        <v>0.9422836434659088</v>
       </c>
       <c r="J6">
-        <v>1.020115499873508</v>
+        <v>1.048780210965909</v>
       </c>
       <c r="K6">
-        <v>0.991371668182053</v>
+        <v>0.9766030237499996</v>
       </c>
       <c r="L6">
-        <v>0.9906831015495905</v>
+        <v>0.9782394757954556</v>
       </c>
       <c r="M6">
-        <v>1.013483495062657</v>
+        <v>1.033809668863637</v>
       </c>
       <c r="N6">
-        <v>1.013483495062657</v>
+        <v>1.033809668863637</v>
       </c>
       <c r="O6">
-        <v>1.015694163332941</v>
+        <v>1.038799849564394</v>
       </c>
       <c r="P6">
-        <v>1.006112886102456</v>
+        <v>1.014740787159091</v>
       </c>
       <c r="Q6">
-        <v>1.006112886102456</v>
+        <v>1.014740787159091</v>
       </c>
       <c r="R6">
-        <v>1.002427581622355</v>
+        <v>1.005206346306818</v>
       </c>
       <c r="S6">
-        <v>1.002427581622355</v>
+        <v>1.005206346306818</v>
       </c>
       <c r="T6">
-        <v>1.00072696816081</v>
+        <v>1.002174765606061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998827501451563</v>
+        <v>1.011968933872845</v>
       </c>
       <c r="D7">
-        <v>1.000446266389896</v>
+        <v>0.9385471235930728</v>
       </c>
       <c r="E7">
-        <v>0.9998915905350169</v>
+        <v>1.017248923703315</v>
       </c>
       <c r="F7">
-        <v>1.000446266389896</v>
+        <v>0.9385471235930728</v>
       </c>
       <c r="G7">
-        <v>0.9998890118568226</v>
+        <v>1.015709572202313</v>
       </c>
       <c r="H7">
-        <v>0.9998827501451563</v>
+        <v>1.011968933872845</v>
       </c>
       <c r="I7">
-        <v>0.9997125897489934</v>
+        <v>1.047002858556416</v>
       </c>
       <c r="J7">
-        <v>1.000243402923784</v>
+        <v>0.9649789840285509</v>
       </c>
       <c r="K7">
-        <v>0.9998827501451563</v>
+        <v>1.011968933872845</v>
       </c>
       <c r="L7">
-        <v>0.9998915905350169</v>
+        <v>1.017248923703315</v>
       </c>
       <c r="M7">
-        <v>1.000168928462456</v>
+        <v>0.977898023648194</v>
       </c>
       <c r="N7">
-        <v>1.000168928462456</v>
+        <v>0.977898023648194</v>
       </c>
       <c r="O7">
-        <v>1.000193753282899</v>
+        <v>0.973591677108313</v>
       </c>
       <c r="P7">
-        <v>1.000073535690023</v>
+        <v>0.9892549937230776</v>
       </c>
       <c r="Q7">
-        <v>1.000073535690023</v>
+        <v>0.9892549937230776</v>
       </c>
       <c r="R7">
-        <v>1.000025839303806</v>
+        <v>0.9949334787605195</v>
       </c>
       <c r="S7">
-        <v>1.000025839303806</v>
+        <v>0.9949334787605195</v>
       </c>
       <c r="T7">
-        <v>1.000010935266612</v>
+        <v>0.9992427326594188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9997300033019333</v>
+        <v>1.011589419434351</v>
       </c>
       <c r="D8">
-        <v>1.001037090759158</v>
+        <v>0.9401220475741793</v>
       </c>
       <c r="E8">
-        <v>0.9997466848079257</v>
+        <v>1.016847294605122</v>
       </c>
       <c r="F8">
-        <v>1.001037090759158</v>
+        <v>0.9401220475741793</v>
       </c>
       <c r="G8">
-        <v>0.9997418200285424</v>
+        <v>1.015314390448375</v>
       </c>
       <c r="H8">
-        <v>0.9997300033019333</v>
+        <v>1.011589419434351</v>
       </c>
       <c r="I8">
-        <v>0.9993276679494379</v>
+        <v>1.045927635186864</v>
       </c>
       <c r="J8">
-        <v>1.000566541628783</v>
+        <v>0.9658503100859955</v>
       </c>
       <c r="K8">
-        <v>0.9997300033019333</v>
+        <v>1.011589419434351</v>
       </c>
       <c r="L8">
-        <v>0.9997466848079257</v>
+        <v>1.016847294605122</v>
       </c>
       <c r="M8">
-        <v>1.000391887783542</v>
+        <v>0.9784846710896509</v>
       </c>
       <c r="N8">
-        <v>1.000391887783542</v>
+        <v>0.9784846710896509</v>
       </c>
       <c r="O8">
-        <v>1.000450105731956</v>
+        <v>0.9742732174217658</v>
       </c>
       <c r="P8">
-        <v>1.000171259623006</v>
+        <v>0.9895195872045508</v>
       </c>
       <c r="Q8">
-        <v>1.000171259623006</v>
+        <v>0.9895195872045508</v>
       </c>
       <c r="R8">
-        <v>1.000060945542738</v>
+        <v>0.9950370452620008</v>
       </c>
       <c r="S8">
-        <v>1.000060945542738</v>
+        <v>0.9950370452620008</v>
       </c>
       <c r="T8">
-        <v>1.000024968079297</v>
+        <v>0.9992751828891479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996493323894972</v>
+        <v>1.011196476748132</v>
       </c>
       <c r="D9">
-        <v>1.001375884524083</v>
+        <v>0.9416498993983875</v>
       </c>
       <c r="E9">
-        <v>0.9996597484487062</v>
+        <v>1.016471431505087</v>
       </c>
       <c r="F9">
-        <v>1.001375884524083</v>
+        <v>0.9416498993983875</v>
       </c>
       <c r="G9">
-        <v>0.9996567106590847</v>
+        <v>1.014933547841573</v>
       </c>
       <c r="H9">
-        <v>0.9996493323894972</v>
+        <v>1.011196476748132</v>
       </c>
       <c r="I9">
-        <v>0.9990946448547211</v>
+        <v>1.044928586752585</v>
       </c>
       <c r="J9">
-        <v>1.000754328260677</v>
+        <v>0.9666866758452726</v>
       </c>
       <c r="K9">
-        <v>0.9996493323894972</v>
+        <v>1.011196476748132</v>
       </c>
       <c r="L9">
-        <v>0.9996597484487062</v>
+        <v>1.016471431505087</v>
       </c>
       <c r="M9">
-        <v>1.000517816486394</v>
+        <v>0.9790606654517374</v>
       </c>
       <c r="N9">
-        <v>1.000517816486394</v>
+        <v>0.9790606654517374</v>
       </c>
       <c r="O9">
-        <v>1.000596653744489</v>
+        <v>0.9749360022495824</v>
       </c>
       <c r="P9">
-        <v>1.000228321787429</v>
+        <v>0.9897726025505357</v>
       </c>
       <c r="Q9">
-        <v>1.000228321787429</v>
+        <v>0.9897726025505357</v>
       </c>
       <c r="R9">
-        <v>1.000083574437946</v>
+        <v>0.9951285710999348</v>
       </c>
       <c r="S9">
-        <v>1.000083574437946</v>
+        <v>0.9951285710999348</v>
       </c>
       <c r="T9">
-        <v>1.000031774856128</v>
+        <v>0.9993111030151729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9992142521063629</v>
+        <v>1.010809224102359</v>
       </c>
       <c r="D10">
-        <v>1.003043067328038</v>
+        <v>0.9436357624131264</v>
       </c>
       <c r="E10">
-        <v>0.9992531112813167</v>
+        <v>1.01591429174121</v>
       </c>
       <c r="F10">
-        <v>1.003043067328038</v>
+        <v>0.9436357624131264</v>
       </c>
       <c r="G10">
-        <v>0.9992417806078145</v>
+        <v>1.014425937491941</v>
       </c>
       <c r="H10">
-        <v>0.9992142521063629</v>
+        <v>1.010809224102359</v>
       </c>
       <c r="I10">
-        <v>0.998015698339994</v>
+        <v>1.043410520735009</v>
       </c>
       <c r="J10">
-        <v>1.001664696742958</v>
+        <v>0.9678182171462899</v>
       </c>
       <c r="K10">
-        <v>0.9992142521063629</v>
+        <v>1.010809224102359</v>
       </c>
       <c r="L10">
-        <v>0.9992531112813167</v>
+        <v>1.01591429174121</v>
       </c>
       <c r="M10">
-        <v>1.001148089304678</v>
+        <v>0.9797750270771683</v>
       </c>
       <c r="N10">
-        <v>1.001148089304678</v>
+        <v>0.9797750270771683</v>
       </c>
       <c r="O10">
-        <v>1.001320291784104</v>
+        <v>0.9757894237668756</v>
       </c>
       <c r="P10">
-        <v>1.000503476905239</v>
+        <v>0.9901197594188984</v>
       </c>
       <c r="Q10">
-        <v>1.000503476905239</v>
+        <v>0.9901197594188984</v>
       </c>
       <c r="R10">
-        <v>1.00018117070552</v>
+        <v>0.9952921255897635</v>
       </c>
       <c r="S10">
-        <v>1.00018117070552</v>
+        <v>0.9952921255897635</v>
       </c>
       <c r="T10">
-        <v>1.000072101067747</v>
+        <v>0.9993356589383224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9987764178989033</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="D11">
-        <v>1.004827798530688</v>
+        <v>1.006904412911934</v>
       </c>
       <c r="E11">
-        <v>0.9988022880813106</v>
+        <v>0.9982245128527812</v>
       </c>
       <c r="F11">
-        <v>1.004827798530688</v>
+        <v>1.006904412911934</v>
       </c>
       <c r="G11">
-        <v>0.9987947453535956</v>
+        <v>0.9982648241608254</v>
       </c>
       <c r="H11">
-        <v>0.9987764178989033</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="I11">
-        <v>0.9968110297997075</v>
+        <v>0.9952390259070443</v>
       </c>
       <c r="J11">
-        <v>1.002649307173324</v>
+        <v>1.003829431191527</v>
       </c>
       <c r="K11">
-        <v>0.9987764178989033</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="L11">
-        <v>0.9988022880813106</v>
+        <v>0.9982245128527812</v>
       </c>
       <c r="M11">
-        <v>1.001815043305999</v>
+        <v>1.002564462882358</v>
       </c>
       <c r="N11">
-        <v>1.001815043305999</v>
+        <v>1.002564462882358</v>
       </c>
       <c r="O11">
-        <v>1.002093131261774</v>
+        <v>1.002986118985414</v>
       </c>
       <c r="P11">
-        <v>1.000802168170301</v>
+        <v>1.001163904694792</v>
       </c>
       <c r="Q11">
-        <v>1.000802168170301</v>
+        <v>1.001163904694792</v>
       </c>
       <c r="R11">
-        <v>1.000295730602451</v>
+        <v>1.00046362560101</v>
       </c>
       <c r="S11">
-        <v>1.000295730602451</v>
+        <v>1.00046362560101</v>
       </c>
       <c r="T11">
-        <v>1.000110264472922</v>
+        <v>1.000137499223962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.014369839509032</v>
+        <v>0.9992986937410574</v>
       </c>
       <c r="D12">
-        <v>0.9637354397832227</v>
+        <v>1.00291402008707</v>
       </c>
       <c r="E12">
-        <v>1.006119641121082</v>
+        <v>0.9992563844041971</v>
       </c>
       <c r="F12">
-        <v>0.9637354397832227</v>
+        <v>1.00291402008707</v>
       </c>
       <c r="G12">
-        <v>1.008524948117354</v>
+        <v>0.9992687180411752</v>
       </c>
       <c r="H12">
-        <v>1.014369839509032</v>
+        <v>0.9992986937410574</v>
       </c>
       <c r="I12">
-        <v>1.014747592515798</v>
+        <v>0.998008963755521</v>
       </c>
       <c r="J12">
-        <v>0.9819638286793322</v>
+        <v>1.00161250512804</v>
       </c>
       <c r="K12">
-        <v>1.014369839509032</v>
+        <v>0.9992986937410574</v>
       </c>
       <c r="L12">
-        <v>1.006119641121082</v>
+        <v>0.9992563844041971</v>
       </c>
       <c r="M12">
-        <v>0.9849275404521525</v>
+        <v>1.001085202245633</v>
       </c>
       <c r="N12">
-        <v>0.9849275404521525</v>
+        <v>1.001085202245633</v>
       </c>
       <c r="O12">
-        <v>0.9839396365278791</v>
+        <v>1.001260969873102</v>
       </c>
       <c r="P12">
-        <v>0.994741640137779</v>
+        <v>1.000489699410775</v>
       </c>
       <c r="Q12">
-        <v>0.994741640137779</v>
+        <v>1.000489699410775</v>
       </c>
       <c r="R12">
-        <v>0.9996486899805923</v>
+        <v>1.000191947993345</v>
       </c>
       <c r="S12">
-        <v>0.9996486899805923</v>
+        <v>1.000191947993345</v>
       </c>
       <c r="T12">
-        <v>0.9982435482876367</v>
+        <v>1.00005988085951</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9994418808283211</v>
+        <v>0.9978100240867178</v>
       </c>
       <c r="D13">
-        <v>0.993306383595565</v>
+        <v>1.009260093612412</v>
       </c>
       <c r="E13">
-        <v>1.002913139413011</v>
+        <v>0.9976155111305099</v>
       </c>
       <c r="F13">
-        <v>0.993306383595565</v>
+        <v>1.009260093612412</v>
       </c>
       <c r="G13">
-        <v>1.001901106146708</v>
+        <v>0.9976722158080196</v>
       </c>
       <c r="H13">
-        <v>0.9994418808283211</v>
+        <v>0.9978100240867178</v>
       </c>
       <c r="I13">
-        <v>1.008429562082902</v>
+        <v>0.9936042990465296</v>
       </c>
       <c r="J13">
-        <v>0.9955151642948434</v>
+        <v>1.005138070582957</v>
       </c>
       <c r="K13">
-        <v>0.9994418808283211</v>
+        <v>0.9978100240867178</v>
       </c>
       <c r="L13">
-        <v>1.002913139413011</v>
+        <v>0.9976155111305099</v>
       </c>
       <c r="M13">
-        <v>0.9981097615042878</v>
+        <v>1.003437802371461</v>
       </c>
       <c r="N13">
-        <v>0.9981097615042878</v>
+        <v>1.003437802371461</v>
       </c>
       <c r="O13">
-        <v>0.9972448957678063</v>
+        <v>1.00400455844196</v>
       </c>
       <c r="P13">
-        <v>0.9985538012789655</v>
+        <v>1.001561876276547</v>
       </c>
       <c r="Q13">
-        <v>0.9985538012789655</v>
+        <v>1.001561876276547</v>
       </c>
       <c r="R13">
-        <v>0.9987758211663044</v>
+        <v>1.00062391322909</v>
       </c>
       <c r="S13">
-        <v>0.9987758211663044</v>
+        <v>1.00062391322909</v>
       </c>
       <c r="T13">
-        <v>1.000251206060225</v>
+        <v>1.000183369044525</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.016711760342585</v>
+        <v>0.9955702402465141</v>
       </c>
       <c r="D14">
-        <v>0.92505585301876</v>
+        <v>1.018609239365919</v>
       </c>
       <c r="E14">
-        <v>1.019860629219225</v>
+        <v>0.9952240481001097</v>
       </c>
       <c r="F14">
-        <v>0.92505585301876</v>
+        <v>1.018609239365919</v>
       </c>
       <c r="G14">
-        <v>1.018942583935212</v>
+        <v>0.9953249763477704</v>
       </c>
       <c r="H14">
-        <v>1.016711760342585</v>
+        <v>0.9955702402465141</v>
       </c>
       <c r="I14">
-        <v>1.053561470836624</v>
+        <v>0.9871981826223616</v>
       </c>
       <c r="J14">
-        <v>0.9580519823176037</v>
+        <v>1.010315208725793</v>
       </c>
       <c r="K14">
-        <v>1.016711760342585</v>
+        <v>0.9955702402465141</v>
       </c>
       <c r="L14">
-        <v>1.019860629219225</v>
+        <v>0.9952240481001097</v>
       </c>
       <c r="M14">
-        <v>0.9724582411189927</v>
+        <v>1.006916643733014</v>
       </c>
       <c r="N14">
-        <v>0.9724582411189927</v>
+        <v>1.006916643733014</v>
       </c>
       <c r="O14">
-        <v>0.9676561548518631</v>
+        <v>1.008049498730607</v>
       </c>
       <c r="P14">
-        <v>0.9872094141935234</v>
+        <v>1.003134509237514</v>
       </c>
       <c r="Q14">
-        <v>0.9872094141935234</v>
+        <v>1.003134509237514</v>
       </c>
       <c r="R14">
-        <v>0.9945850007307886</v>
+        <v>1.001243441989764</v>
       </c>
       <c r="S14">
-        <v>0.9945850007307886</v>
+        <v>1.001243441989764</v>
       </c>
       <c r="T14">
-        <v>0.9986973799450016</v>
+        <v>1.000373649234745</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.005927421620521</v>
+        <v>0.9984165034208764</v>
       </c>
       <c r="D15">
-        <v>0.9796151116138746</v>
+        <v>1.006682875984724</v>
       </c>
       <c r="E15">
-        <v>1.004634448438814</v>
+        <v>0.998280824243695</v>
       </c>
       <c r="F15">
-        <v>0.9796151116138746</v>
+        <v>1.006682875984724</v>
       </c>
       <c r="G15">
-        <v>1.00501141069853</v>
+        <v>0.9983203792005639</v>
       </c>
       <c r="H15">
-        <v>1.005927421620521</v>
+        <v>0.9984165034208764</v>
       </c>
       <c r="I15">
-        <v>1.012112248171304</v>
+        <v>0.9953896846980712</v>
       </c>
       <c r="J15">
-        <v>0.9890875483263279</v>
+        <v>1.003706984602589</v>
       </c>
       <c r="K15">
-        <v>1.005927421620521</v>
+        <v>0.9984165034208764</v>
       </c>
       <c r="L15">
-        <v>1.004634448438814</v>
+        <v>0.998280824243695</v>
       </c>
       <c r="M15">
-        <v>0.9921247800263444</v>
+        <v>1.002481850114209</v>
       </c>
       <c r="N15">
-        <v>0.9921247800263444</v>
+        <v>1.002481850114209</v>
       </c>
       <c r="O15">
-        <v>0.9911123694596723</v>
+        <v>1.002890228277002</v>
       </c>
       <c r="P15">
-        <v>0.9967256605577366</v>
+        <v>1.001126734549765</v>
       </c>
       <c r="Q15">
-        <v>0.9967256605577366</v>
+        <v>1.001126734549765</v>
       </c>
       <c r="R15">
-        <v>0.9990261008234327</v>
+        <v>1.000449176767543</v>
       </c>
       <c r="S15">
-        <v>0.9990261008234327</v>
+        <v>1.000449176767543</v>
       </c>
       <c r="T15">
-        <v>0.9993980314782287</v>
+        <v>1.00013287535842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9688758124299928</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="D16">
-        <v>1.130475756588137</v>
+        <v>1.012901734907552</v>
       </c>
       <c r="E16">
-        <v>0.9665506452570605</v>
+        <v>0.996681417728606</v>
       </c>
       <c r="F16">
-        <v>1.130475756588137</v>
+        <v>1.012901734907552</v>
       </c>
       <c r="G16">
-        <v>0.9672285296489703</v>
+        <v>0.9967574553995612</v>
       </c>
       <c r="H16">
-        <v>0.9688758124299928</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="I16">
-        <v>0.9103588222141746</v>
+        <v>0.9911007671395456</v>
       </c>
       <c r="J16">
-        <v>1.072299786732198</v>
+        <v>1.007156316701217</v>
       </c>
       <c r="K16">
-        <v>0.9688758124299928</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="L16">
-        <v>0.9665506452570605</v>
+        <v>0.996681417728606</v>
       </c>
       <c r="M16">
-        <v>1.048513200922599</v>
+        <v>1.004791576318079</v>
       </c>
       <c r="N16">
-        <v>1.048513200922599</v>
+        <v>1.004791576318079</v>
       </c>
       <c r="O16">
-        <v>1.056442062859132</v>
+        <v>1.005579823112458</v>
       </c>
       <c r="P16">
-        <v>1.021967404758397</v>
+        <v>1.002175128212235</v>
       </c>
       <c r="Q16">
-        <v>1.021967404758397</v>
+        <v>1.002175128212235</v>
       </c>
       <c r="R16">
-        <v>1.008694506676296</v>
+        <v>1.000866904159313</v>
       </c>
       <c r="S16">
-        <v>1.008694506676296</v>
+        <v>1.000866904159313</v>
       </c>
       <c r="T16">
-        <v>1.002631558811756</v>
+        <v>1.000256653979505</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9740107691611229</v>
+        <v>0.994123307797587</v>
       </c>
       <c r="D17">
-        <v>1.107021749341802</v>
+        <v>1.024734959273292</v>
       </c>
       <c r="E17">
-        <v>0.9728188935891064</v>
+        <v>0.9936456756579407</v>
       </c>
       <c r="F17">
-        <v>1.107021749341802</v>
+        <v>1.024734959273292</v>
       </c>
       <c r="G17">
-        <v>0.9731663740820091</v>
+        <v>0.9937849243453009</v>
       </c>
       <c r="H17">
-        <v>0.9740107691611229</v>
+        <v>0.994123307797587</v>
       </c>
       <c r="I17">
-        <v>0.9272900186076858</v>
+        <v>0.982964154595072</v>
       </c>
       <c r="J17">
-        <v>1.059137804364969</v>
+        <v>1.013714773337744</v>
       </c>
       <c r="K17">
-        <v>0.9740107691611229</v>
+        <v>0.994123307797587</v>
       </c>
       <c r="L17">
-        <v>0.9728188935891064</v>
+        <v>0.9936456756579407</v>
       </c>
       <c r="M17">
-        <v>1.039920321465454</v>
+        <v>1.009190317465616</v>
       </c>
       <c r="N17">
-        <v>1.039920321465454</v>
+        <v>1.009190317465616</v>
       </c>
       <c r="O17">
-        <v>1.046326149098626</v>
+        <v>1.010698469422992</v>
       </c>
       <c r="P17">
-        <v>1.017950470697344</v>
+        <v>1.004167980909606</v>
       </c>
       <c r="Q17">
-        <v>1.017950470697344</v>
+        <v>1.004167980909606</v>
       </c>
       <c r="R17">
-        <v>1.006965545313288</v>
+        <v>1.001656812631601</v>
       </c>
       <c r="S17">
-        <v>1.006965545313288</v>
+        <v>1.001656812631601</v>
       </c>
       <c r="T17">
-        <v>1.002240934857783</v>
+        <v>1.000494632501156</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9844069256841594</v>
+        <v>0.991371668182053</v>
       </c>
       <c r="D18">
-        <v>1.059691321762264</v>
+        <v>1.036283888575724</v>
       </c>
       <c r="E18">
-        <v>0.9854495268943106</v>
+        <v>0.9906831015495905</v>
       </c>
       <c r="F18">
-        <v>1.059691321762264</v>
+        <v>1.036283888575724</v>
       </c>
       <c r="G18">
-        <v>0.9851455617736108</v>
+        <v>0.9908838550960989</v>
       </c>
       <c r="H18">
-        <v>0.9844069256841594</v>
+        <v>0.991371668182053</v>
       </c>
       <c r="I18">
-        <v>0.9613973261401062</v>
+        <v>0.9750237956878859</v>
       </c>
       <c r="J18">
-        <v>1.032588945575998</v>
+        <v>1.020115499873508</v>
       </c>
       <c r="K18">
-        <v>0.9844069256841594</v>
+        <v>0.991371668182053</v>
       </c>
       <c r="L18">
-        <v>0.9854495268943106</v>
+        <v>0.9906831015495905</v>
       </c>
       <c r="M18">
-        <v>1.022570424328287</v>
+        <v>1.013483495062657</v>
       </c>
       <c r="N18">
-        <v>1.022570424328287</v>
+        <v>1.013483495062657</v>
       </c>
       <c r="O18">
-        <v>1.025909931410858</v>
+        <v>1.015694163332941</v>
       </c>
       <c r="P18">
-        <v>1.009849258113578</v>
+        <v>1.006112886102456</v>
       </c>
       <c r="Q18">
-        <v>1.009849258113578</v>
+        <v>1.006112886102456</v>
       </c>
       <c r="R18">
-        <v>1.003488675006223</v>
+        <v>1.002427581622355</v>
       </c>
       <c r="S18">
-        <v>1.003488675006223</v>
+        <v>1.002427581622355</v>
       </c>
       <c r="T18">
-        <v>1.001446601305075</v>
+        <v>1.00072696816081</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9826808153397703</v>
+        <v>0.9998827501451563</v>
       </c>
       <c r="D19">
-        <v>1.065273601121967</v>
+        <v>1.000446266389896</v>
       </c>
       <c r="E19">
-        <v>0.9842375901251185</v>
+        <v>0.9998915905350169</v>
       </c>
       <c r="F19">
-        <v>1.065273601121967</v>
+        <v>1.000446266389896</v>
       </c>
       <c r="G19">
-        <v>0.9837837174437928</v>
+        <v>0.9998890118568226</v>
       </c>
       <c r="H19">
-        <v>0.9826808153397703</v>
+        <v>0.9998827501451563</v>
       </c>
       <c r="I19">
-        <v>0.958263434481346</v>
+        <v>0.9997125897489934</v>
       </c>
       <c r="J19">
-        <v>1.035540200161451</v>
+        <v>1.000243402923784</v>
       </c>
       <c r="K19">
-        <v>0.9826808153397703</v>
+        <v>0.9998827501451563</v>
       </c>
       <c r="L19">
-        <v>0.9842375901251185</v>
+        <v>0.9998915905350169</v>
       </c>
       <c r="M19">
-        <v>1.024755595623543</v>
+        <v>1.000168928462456</v>
       </c>
       <c r="N19">
-        <v>1.024755595623543</v>
+        <v>1.000168928462456</v>
       </c>
       <c r="O19">
-        <v>1.028350463802846</v>
+        <v>1.000193753282899</v>
       </c>
       <c r="P19">
-        <v>1.010730668862285</v>
+        <v>1.000073535690023</v>
       </c>
       <c r="Q19">
-        <v>1.010730668862285</v>
+        <v>1.000073535690023</v>
       </c>
       <c r="R19">
-        <v>1.003718205481657</v>
+        <v>1.000025839303806</v>
       </c>
       <c r="S19">
-        <v>1.003718205481657</v>
+        <v>1.000025839303806</v>
       </c>
       <c r="T19">
-        <v>1.001629893112241</v>
+        <v>1.000010935266612</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999837951951559</v>
+        <v>0.9997300033019333</v>
       </c>
       <c r="D20">
-        <v>1.000033542013678</v>
+        <v>1.001037090759158</v>
       </c>
       <c r="E20">
-        <v>0.9999959583051831</v>
+        <v>0.9997466848079257</v>
       </c>
       <c r="F20">
-        <v>1.000033542013678</v>
+        <v>1.001037090759158</v>
       </c>
       <c r="G20">
-        <v>0.9999924109408161</v>
+        <v>0.9997418200285424</v>
       </c>
       <c r="H20">
-        <v>0.9999837951951559</v>
+        <v>0.9997300033019333</v>
       </c>
       <c r="I20">
-        <v>0.9999915368186429</v>
+        <v>0.9993276679494379</v>
       </c>
       <c r="J20">
-        <v>1.000015635461891</v>
+        <v>1.000566541628783</v>
       </c>
       <c r="K20">
-        <v>0.9999837951951559</v>
+        <v>0.9997300033019333</v>
       </c>
       <c r="L20">
-        <v>0.9999959583051831</v>
+        <v>0.9997466848079257</v>
       </c>
       <c r="M20">
-        <v>1.00001475015943</v>
+        <v>1.000391887783542</v>
       </c>
       <c r="N20">
-        <v>1.00001475015943</v>
+        <v>1.000391887783542</v>
       </c>
       <c r="O20">
-        <v>1.000015045260251</v>
+        <v>1.000450105731956</v>
       </c>
       <c r="P20">
-        <v>1.000004431838005</v>
+        <v>1.000171259623006</v>
       </c>
       <c r="Q20">
-        <v>1.000004431838005</v>
+        <v>1.000171259623006</v>
       </c>
       <c r="R20">
-        <v>0.999999272677293</v>
+        <v>1.000060945542738</v>
       </c>
       <c r="S20">
-        <v>0.999999272677293</v>
+        <v>1.000060945542738</v>
       </c>
       <c r="T20">
-        <v>1.000002146455895</v>
+        <v>1.000024968079297</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998503731134427</v>
+        <v>0.9996493323894972</v>
       </c>
       <c r="D21">
-        <v>1.000591287493226</v>
+        <v>1.001375884524083</v>
       </c>
       <c r="E21">
-        <v>0.999853180550645</v>
+        <v>0.9996597484487062</v>
       </c>
       <c r="F21">
-        <v>1.000591287493226</v>
+        <v>1.001375884524083</v>
       </c>
       <c r="G21">
-        <v>0.9998523610804048</v>
+        <v>0.9996567106590847</v>
       </c>
       <c r="H21">
-        <v>0.9998503731134427</v>
+        <v>0.9996493323894972</v>
       </c>
       <c r="I21">
-        <v>0.9996090144214869</v>
+        <v>0.9990946448547211</v>
       </c>
       <c r="J21">
-        <v>1.000324561050013</v>
+        <v>1.000754328260677</v>
       </c>
       <c r="K21">
-        <v>0.9998503731134427</v>
+        <v>0.9996493323894972</v>
       </c>
       <c r="L21">
-        <v>0.999853180550645</v>
+        <v>0.9996597484487062</v>
       </c>
       <c r="M21">
-        <v>1.000222234021936</v>
+        <v>1.000517816486394</v>
       </c>
       <c r="N21">
-        <v>1.000222234021936</v>
+        <v>1.000517816486394</v>
       </c>
       <c r="O21">
-        <v>1.000256343031295</v>
+        <v>1.000596653744489</v>
       </c>
       <c r="P21">
-        <v>1.000098280385771</v>
+        <v>1.000228321787429</v>
       </c>
       <c r="Q21">
-        <v>1.000098280385771</v>
+        <v>1.000228321787429</v>
       </c>
       <c r="R21">
-        <v>1.000036303567689</v>
+        <v>1.000083574437946</v>
       </c>
       <c r="S21">
-        <v>1.000036303567689</v>
+        <v>1.000083574437946</v>
       </c>
       <c r="T21">
-        <v>1.000013462951536</v>
+        <v>1.000031774856128</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9995017206906265</v>
+        <v>0.9992142521063629</v>
       </c>
       <c r="D22">
-        <v>1.002064203086009</v>
+        <v>1.003043067328038</v>
       </c>
       <c r="E22">
-        <v>0.9994740786236306</v>
+        <v>0.9992531112813167</v>
       </c>
       <c r="F22">
-        <v>1.002064203086009</v>
+        <v>1.003043067328038</v>
       </c>
       <c r="G22">
-        <v>0.9994821330995862</v>
+        <v>0.9992417806078145</v>
       </c>
       <c r="H22">
-        <v>0.9995017206906265</v>
+        <v>0.9992142521063629</v>
       </c>
       <c r="I22">
-        <v>0.9985922663097387</v>
+        <v>0.998015698339994</v>
       </c>
       <c r="J22">
-        <v>1.001141712634882</v>
+        <v>1.001664696742958</v>
       </c>
       <c r="K22">
-        <v>0.9995017206906265</v>
+        <v>0.9992142521063629</v>
       </c>
       <c r="L22">
-        <v>0.9994740786236306</v>
+        <v>0.9992531112813167</v>
       </c>
       <c r="M22">
-        <v>1.00076914085482</v>
+        <v>1.001148089304678</v>
       </c>
       <c r="N22">
-        <v>1.00076914085482</v>
+        <v>1.001148089304678</v>
       </c>
       <c r="O22">
-        <v>1.000893331448174</v>
+        <v>1.001320291784104</v>
       </c>
       <c r="P22">
-        <v>1.000346667466755</v>
+        <v>1.000503476905239</v>
       </c>
       <c r="Q22">
-        <v>1.000346667466755</v>
+        <v>1.000503476905239</v>
       </c>
       <c r="R22">
-        <v>1.000135430772723</v>
+        <v>1.00018117070552</v>
       </c>
       <c r="S22">
-        <v>1.000135430772723</v>
+        <v>1.00018117070552</v>
       </c>
       <c r="T22">
-        <v>1.000042685740745</v>
+        <v>1.000072101067747</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9987764178989033</v>
+      </c>
+      <c r="D23">
+        <v>1.004827798530688</v>
+      </c>
+      <c r="E23">
+        <v>0.9988022880813106</v>
+      </c>
+      <c r="F23">
+        <v>1.004827798530688</v>
+      </c>
+      <c r="G23">
+        <v>0.9987947453535956</v>
+      </c>
+      <c r="H23">
+        <v>0.9987764178989033</v>
+      </c>
+      <c r="I23">
+        <v>0.9968110297997075</v>
+      </c>
+      <c r="J23">
+        <v>1.002649307173324</v>
+      </c>
+      <c r="K23">
+        <v>0.9987764178989033</v>
+      </c>
+      <c r="L23">
+        <v>0.9988022880813106</v>
+      </c>
+      <c r="M23">
+        <v>1.001815043305999</v>
+      </c>
+      <c r="N23">
+        <v>1.001815043305999</v>
+      </c>
+      <c r="O23">
+        <v>1.002093131261774</v>
+      </c>
+      <c r="P23">
+        <v>1.000802168170301</v>
+      </c>
+      <c r="Q23">
+        <v>1.000802168170301</v>
+      </c>
+      <c r="R23">
+        <v>1.000295730602451</v>
+      </c>
+      <c r="S23">
+        <v>1.000295730602451</v>
+      </c>
+      <c r="T23">
+        <v>1.000110264472922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="D24">
+        <v>0.9637354397832227</v>
+      </c>
+      <c r="E24">
+        <v>1.006119641121082</v>
+      </c>
+      <c r="F24">
+        <v>0.9637354397832227</v>
+      </c>
+      <c r="G24">
+        <v>1.008524948117354</v>
+      </c>
+      <c r="H24">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="I24">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="J24">
+        <v>0.9819638286793322</v>
+      </c>
+      <c r="K24">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="L24">
+        <v>1.006119641121082</v>
+      </c>
+      <c r="M24">
+        <v>0.9849275404521525</v>
+      </c>
+      <c r="N24">
+        <v>0.9849275404521525</v>
+      </c>
+      <c r="O24">
+        <v>0.9839396365278791</v>
+      </c>
+      <c r="P24">
+        <v>0.994741640137779</v>
+      </c>
+      <c r="Q24">
+        <v>0.994741640137779</v>
+      </c>
+      <c r="R24">
+        <v>0.9996486899805923</v>
+      </c>
+      <c r="S24">
+        <v>0.9996486899805923</v>
+      </c>
+      <c r="T24">
+        <v>0.9982435482876367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="D25">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="E25">
+        <v>1.002913139413011</v>
+      </c>
+      <c r="F25">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="G25">
+        <v>1.001901106146708</v>
+      </c>
+      <c r="H25">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="I25">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="J25">
+        <v>0.9955151642948434</v>
+      </c>
+      <c r="K25">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="L25">
+        <v>1.002913139413011</v>
+      </c>
+      <c r="M25">
+        <v>0.9981097615042878</v>
+      </c>
+      <c r="N25">
+        <v>0.9981097615042878</v>
+      </c>
+      <c r="O25">
+        <v>0.9972448957678063</v>
+      </c>
+      <c r="P25">
+        <v>0.9985538012789655</v>
+      </c>
+      <c r="Q25">
+        <v>0.9985538012789655</v>
+      </c>
+      <c r="R25">
+        <v>0.9987758211663044</v>
+      </c>
+      <c r="S25">
+        <v>0.9987758211663044</v>
+      </c>
+      <c r="T25">
+        <v>1.000251206060225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="D26">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="E26">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="F26">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="G26">
+        <v>1.018942583935212</v>
+      </c>
+      <c r="H26">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="I26">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="J26">
+        <v>0.9580519823176037</v>
+      </c>
+      <c r="K26">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="L26">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="M26">
+        <v>0.9724582411189927</v>
+      </c>
+      <c r="N26">
+        <v>0.9724582411189927</v>
+      </c>
+      <c r="O26">
+        <v>0.9676561548518631</v>
+      </c>
+      <c r="P26">
+        <v>0.9872094141935234</v>
+      </c>
+      <c r="Q26">
+        <v>0.9872094141935234</v>
+      </c>
+      <c r="R26">
+        <v>0.9945850007307886</v>
+      </c>
+      <c r="S26">
+        <v>0.9945850007307886</v>
+      </c>
+      <c r="T26">
+        <v>0.9986973799450016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="D27">
+        <v>0.9796151116138746</v>
+      </c>
+      <c r="E27">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="F27">
+        <v>0.9796151116138746</v>
+      </c>
+      <c r="G27">
+        <v>1.00501141069853</v>
+      </c>
+      <c r="H27">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="I27">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="J27">
+        <v>0.9890875483263279</v>
+      </c>
+      <c r="K27">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="L27">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="M27">
+        <v>0.9921247800263444</v>
+      </c>
+      <c r="N27">
+        <v>0.9921247800263444</v>
+      </c>
+      <c r="O27">
+        <v>0.9911123694596723</v>
+      </c>
+      <c r="P27">
+        <v>0.9967256605577366</v>
+      </c>
+      <c r="Q27">
+        <v>0.9967256605577366</v>
+      </c>
+      <c r="R27">
+        <v>0.9990261008234327</v>
+      </c>
+      <c r="S27">
+        <v>0.9990261008234327</v>
+      </c>
+      <c r="T27">
+        <v>0.9993980314782287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9688758124299928</v>
+      </c>
+      <c r="D28">
+        <v>1.130475756588137</v>
+      </c>
+      <c r="E28">
+        <v>0.9665506452570605</v>
+      </c>
+      <c r="F28">
+        <v>1.130475756588137</v>
+      </c>
+      <c r="G28">
+        <v>0.9672285296489703</v>
+      </c>
+      <c r="H28">
+        <v>0.9688758124299928</v>
+      </c>
+      <c r="I28">
+        <v>0.9103588222141746</v>
+      </c>
+      <c r="J28">
+        <v>1.072299786732198</v>
+      </c>
+      <c r="K28">
+        <v>0.9688758124299928</v>
+      </c>
+      <c r="L28">
+        <v>0.9665506452570605</v>
+      </c>
+      <c r="M28">
+        <v>1.048513200922599</v>
+      </c>
+      <c r="N28">
+        <v>1.048513200922599</v>
+      </c>
+      <c r="O28">
+        <v>1.056442062859132</v>
+      </c>
+      <c r="P28">
+        <v>1.021967404758397</v>
+      </c>
+      <c r="Q28">
+        <v>1.021967404758397</v>
+      </c>
+      <c r="R28">
+        <v>1.008694506676296</v>
+      </c>
+      <c r="S28">
+        <v>1.008694506676296</v>
+      </c>
+      <c r="T28">
+        <v>1.002631558811756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9740107691611229</v>
+      </c>
+      <c r="D29">
+        <v>1.107021749341802</v>
+      </c>
+      <c r="E29">
+        <v>0.9728188935891064</v>
+      </c>
+      <c r="F29">
+        <v>1.107021749341802</v>
+      </c>
+      <c r="G29">
+        <v>0.9731663740820091</v>
+      </c>
+      <c r="H29">
+        <v>0.9740107691611229</v>
+      </c>
+      <c r="I29">
+        <v>0.9272900186076858</v>
+      </c>
+      <c r="J29">
+        <v>1.059137804364969</v>
+      </c>
+      <c r="K29">
+        <v>0.9740107691611229</v>
+      </c>
+      <c r="L29">
+        <v>0.9728188935891064</v>
+      </c>
+      <c r="M29">
+        <v>1.039920321465454</v>
+      </c>
+      <c r="N29">
+        <v>1.039920321465454</v>
+      </c>
+      <c r="O29">
+        <v>1.046326149098626</v>
+      </c>
+      <c r="P29">
+        <v>1.017950470697344</v>
+      </c>
+      <c r="Q29">
+        <v>1.017950470697344</v>
+      </c>
+      <c r="R29">
+        <v>1.006965545313288</v>
+      </c>
+      <c r="S29">
+        <v>1.006965545313288</v>
+      </c>
+      <c r="T29">
+        <v>1.002240934857783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9844069256841594</v>
+      </c>
+      <c r="D30">
+        <v>1.059691321762264</v>
+      </c>
+      <c r="E30">
+        <v>0.9854495268943106</v>
+      </c>
+      <c r="F30">
+        <v>1.059691321762264</v>
+      </c>
+      <c r="G30">
+        <v>0.9851455617736108</v>
+      </c>
+      <c r="H30">
+        <v>0.9844069256841594</v>
+      </c>
+      <c r="I30">
+        <v>0.9613973261401062</v>
+      </c>
+      <c r="J30">
+        <v>1.032588945575998</v>
+      </c>
+      <c r="K30">
+        <v>0.9844069256841594</v>
+      </c>
+      <c r="L30">
+        <v>0.9854495268943106</v>
+      </c>
+      <c r="M30">
+        <v>1.022570424328287</v>
+      </c>
+      <c r="N30">
+        <v>1.022570424328287</v>
+      </c>
+      <c r="O30">
+        <v>1.025909931410858</v>
+      </c>
+      <c r="P30">
+        <v>1.009849258113578</v>
+      </c>
+      <c r="Q30">
+        <v>1.009849258113578</v>
+      </c>
+      <c r="R30">
+        <v>1.003488675006223</v>
+      </c>
+      <c r="S30">
+        <v>1.003488675006223</v>
+      </c>
+      <c r="T30">
+        <v>1.001446601305075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9826808153397703</v>
+      </c>
+      <c r="D31">
+        <v>1.065273601121967</v>
+      </c>
+      <c r="E31">
+        <v>0.9842375901251185</v>
+      </c>
+      <c r="F31">
+        <v>1.065273601121967</v>
+      </c>
+      <c r="G31">
+        <v>0.9837837174437928</v>
+      </c>
+      <c r="H31">
+        <v>0.9826808153397703</v>
+      </c>
+      <c r="I31">
+        <v>0.958263434481346</v>
+      </c>
+      <c r="J31">
+        <v>1.035540200161451</v>
+      </c>
+      <c r="K31">
+        <v>0.9826808153397703</v>
+      </c>
+      <c r="L31">
+        <v>0.9842375901251185</v>
+      </c>
+      <c r="M31">
+        <v>1.024755595623543</v>
+      </c>
+      <c r="N31">
+        <v>1.024755595623543</v>
+      </c>
+      <c r="O31">
+        <v>1.028350463802846</v>
+      </c>
+      <c r="P31">
+        <v>1.010730668862285</v>
+      </c>
+      <c r="Q31">
+        <v>1.010730668862285</v>
+      </c>
+      <c r="R31">
+        <v>1.003718205481657</v>
+      </c>
+      <c r="S31">
+        <v>1.003718205481657</v>
+      </c>
+      <c r="T31">
+        <v>1.001629893112241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9647394016438358</v>
+      </c>
+      <c r="D32">
+        <v>1.150439142876712</v>
+      </c>
+      <c r="E32">
+        <v>0.9610851126027398</v>
+      </c>
+      <c r="F32">
+        <v>1.150439142876712</v>
+      </c>
+      <c r="G32">
+        <v>0.9621504939726021</v>
+      </c>
+      <c r="H32">
+        <v>0.9647394016438358</v>
+      </c>
+      <c r="I32">
+        <v>0.8955308997260273</v>
+      </c>
+      <c r="J32">
+        <v>1.083587248219179</v>
+      </c>
+      <c r="K32">
+        <v>0.9647394016438358</v>
+      </c>
+      <c r="L32">
+        <v>0.9610851126027398</v>
+      </c>
+      <c r="M32">
+        <v>1.055762127739726</v>
+      </c>
+      <c r="N32">
+        <v>1.055762127739726</v>
+      </c>
+      <c r="O32">
+        <v>1.065037167899544</v>
+      </c>
+      <c r="P32">
+        <v>1.025421219041096</v>
+      </c>
+      <c r="Q32">
+        <v>1.025421219041096</v>
+      </c>
+      <c r="R32">
+        <v>1.010250764691781</v>
+      </c>
+      <c r="S32">
+        <v>1.010250764691781</v>
+      </c>
+      <c r="T32">
+        <v>1.002922049840183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="D33">
+        <v>0.9737200252631579</v>
+      </c>
+      <c r="E33">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="F33">
+        <v>0.9737200252631579</v>
+      </c>
+      <c r="G33">
+        <v>1.006907015789474</v>
+      </c>
+      <c r="H33">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="I33">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="J33">
+        <v>0.9843569942105264</v>
+      </c>
+      <c r="K33">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="L33">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="M33">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="N33">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="O33">
+        <v>0.9888273077192983</v>
+      </c>
+      <c r="P33">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="Q33">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="R33">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="S33">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="T33">
+        <v>1.000007965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="D34">
+        <v>0.9737200252631579</v>
+      </c>
+      <c r="E34">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="F34">
+        <v>0.9737200252631579</v>
+      </c>
+      <c r="G34">
+        <v>1.006907015789474</v>
+      </c>
+      <c r="H34">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="I34">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="J34">
+        <v>0.9843569942105264</v>
+      </c>
+      <c r="K34">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="L34">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="M34">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="N34">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="O34">
+        <v>0.9888273077192983</v>
+      </c>
+      <c r="P34">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="Q34">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="R34">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="S34">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="T34">
+        <v>1.000007965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9361906363707125</v>
+      </c>
+      <c r="D35">
+        <v>1.239631837686856</v>
+      </c>
+      <c r="E35">
+        <v>0.9422594833658676</v>
+      </c>
+      <c r="F35">
+        <v>1.239631837686856</v>
+      </c>
+      <c r="G35">
+        <v>0.9404901372845706</v>
+      </c>
+      <c r="H35">
+        <v>0.9361906363707125</v>
+      </c>
+      <c r="I35">
+        <v>0.8471812569545611</v>
+      </c>
+      <c r="J35">
+        <v>1.130393014387728</v>
+      </c>
+      <c r="K35">
+        <v>0.9361906363707125</v>
+      </c>
+      <c r="L35">
+        <v>0.9422594833658676</v>
+      </c>
+      <c r="M35">
+        <v>1.090945660526362</v>
+      </c>
+      <c r="N35">
+        <v>1.090945660526362</v>
+      </c>
+      <c r="O35">
+        <v>1.104094778480151</v>
+      </c>
+      <c r="P35">
+        <v>1.039360652474479</v>
+      </c>
+      <c r="Q35">
+        <v>1.039360652474479</v>
+      </c>
+      <c r="R35">
+        <v>1.013568148448537</v>
+      </c>
+      <c r="S35">
+        <v>1.013568148448537</v>
+      </c>
+      <c r="T35">
+        <v>1.006024394341716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999837951951559</v>
+      </c>
+      <c r="D36">
+        <v>1.000033542013678</v>
+      </c>
+      <c r="E36">
+        <v>0.9999959583051831</v>
+      </c>
+      <c r="F36">
+        <v>1.000033542013678</v>
+      </c>
+      <c r="G36">
+        <v>0.9999924109408161</v>
+      </c>
+      <c r="H36">
+        <v>0.9999837951951559</v>
+      </c>
+      <c r="I36">
+        <v>0.9999915368186429</v>
+      </c>
+      <c r="J36">
+        <v>1.000015635461891</v>
+      </c>
+      <c r="K36">
+        <v>0.9999837951951559</v>
+      </c>
+      <c r="L36">
+        <v>0.9999959583051831</v>
+      </c>
+      <c r="M36">
+        <v>1.00001475015943</v>
+      </c>
+      <c r="N36">
+        <v>1.00001475015943</v>
+      </c>
+      <c r="O36">
+        <v>1.000015045260251</v>
+      </c>
+      <c r="P36">
+        <v>1.000004431838005</v>
+      </c>
+      <c r="Q36">
+        <v>1.000004431838005</v>
+      </c>
+      <c r="R36">
+        <v>0.999999272677293</v>
+      </c>
+      <c r="S36">
+        <v>0.999999272677293</v>
+      </c>
+      <c r="T36">
+        <v>1.000002146455895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9998503731134427</v>
+      </c>
+      <c r="D37">
+        <v>1.000591287493226</v>
+      </c>
+      <c r="E37">
+        <v>0.999853180550645</v>
+      </c>
+      <c r="F37">
+        <v>1.000591287493226</v>
+      </c>
+      <c r="G37">
+        <v>0.9998523610804048</v>
+      </c>
+      <c r="H37">
+        <v>0.9998503731134427</v>
+      </c>
+      <c r="I37">
+        <v>0.9996090144214869</v>
+      </c>
+      <c r="J37">
+        <v>1.000324561050013</v>
+      </c>
+      <c r="K37">
+        <v>0.9998503731134427</v>
+      </c>
+      <c r="L37">
+        <v>0.999853180550645</v>
+      </c>
+      <c r="M37">
+        <v>1.000222234021936</v>
+      </c>
+      <c r="N37">
+        <v>1.000222234021936</v>
+      </c>
+      <c r="O37">
+        <v>1.000256343031295</v>
+      </c>
+      <c r="P37">
+        <v>1.000098280385771</v>
+      </c>
+      <c r="Q37">
+        <v>1.000098280385771</v>
+      </c>
+      <c r="R37">
+        <v>1.000036303567689</v>
+      </c>
+      <c r="S37">
+        <v>1.000036303567689</v>
+      </c>
+      <c r="T37">
+        <v>1.000013462951536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9995017206906265</v>
+      </c>
+      <c r="D38">
+        <v>1.002064203086009</v>
+      </c>
+      <c r="E38">
+        <v>0.9994740786236306</v>
+      </c>
+      <c r="F38">
+        <v>1.002064203086009</v>
+      </c>
+      <c r="G38">
+        <v>0.9994821330995862</v>
+      </c>
+      <c r="H38">
+        <v>0.9995017206906265</v>
+      </c>
+      <c r="I38">
+        <v>0.9985922663097387</v>
+      </c>
+      <c r="J38">
+        <v>1.001141712634882</v>
+      </c>
+      <c r="K38">
+        <v>0.9995017206906265</v>
+      </c>
+      <c r="L38">
+        <v>0.9994740786236306</v>
+      </c>
+      <c r="M38">
+        <v>1.00076914085482</v>
+      </c>
+      <c r="N38">
+        <v>1.00076914085482</v>
+      </c>
+      <c r="O38">
+        <v>1.000893331448174</v>
+      </c>
+      <c r="P38">
+        <v>1.000346667466755</v>
+      </c>
+      <c r="Q38">
+        <v>1.000346667466755</v>
+      </c>
+      <c r="R38">
+        <v>1.000135430772723</v>
+      </c>
+      <c r="S38">
+        <v>1.000135430772723</v>
+      </c>
+      <c r="T38">
+        <v>1.000042685740745</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.998862582397678</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.004817411921165</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9987584562905129</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.004817411921165</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9987888140835085</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.998862582397678</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9966693877618064</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.002673680877842</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.998862582397678</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9987584562905129</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.001787934105839</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.001787934105839</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.00208318302984</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000812816869785</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000812816869785</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000325258251759</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000325258251759</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000095055555419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.004735308558549</v>
+      </c>
+      <c r="D40">
+        <v>0.9847249564439378</v>
+      </c>
+      <c r="E40">
+        <v>1.003309567733144</v>
+      </c>
+      <c r="F40">
+        <v>0.9847249564439378</v>
+      </c>
+      <c r="G40">
+        <v>1.003725235717121</v>
+      </c>
+      <c r="H40">
+        <v>1.004735308558549</v>
+      </c>
+      <c r="I40">
+        <v>1.008553946467772</v>
+      </c>
+      <c r="J40">
+        <v>0.9919286851875224</v>
+      </c>
+      <c r="K40">
+        <v>1.004735308558549</v>
+      </c>
+      <c r="L40">
+        <v>1.003309567733144</v>
+      </c>
+      <c r="M40">
+        <v>0.9940172620885409</v>
+      </c>
+      <c r="N40">
+        <v>0.9940172620885409</v>
+      </c>
+      <c r="O40">
+        <v>0.9933210697882014</v>
+      </c>
+      <c r="P40">
+        <v>0.9975899442452102</v>
+      </c>
+      <c r="Q40">
+        <v>0.9975899442452102</v>
+      </c>
+      <c r="R40">
+        <v>0.9993762853235448</v>
+      </c>
+      <c r="S40">
+        <v>0.9993762853235448</v>
+      </c>
+      <c r="T40">
+        <v>0.9994962833513411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.999835251703153</v>
+      </c>
+      <c r="D41">
+        <v>1.003069598929104</v>
+      </c>
+      <c r="E41">
+        <v>0.9988977938648662</v>
+      </c>
+      <c r="F41">
+        <v>1.003069598929104</v>
+      </c>
+      <c r="G41">
+        <v>0.9991711032607042</v>
+      </c>
+      <c r="H41">
+        <v>0.999835251703153</v>
+      </c>
+      <c r="I41">
+        <v>0.996882217595548</v>
+      </c>
+      <c r="J41">
+        <v>1.001905236140634</v>
+      </c>
+      <c r="K41">
+        <v>0.999835251703153</v>
+      </c>
+      <c r="L41">
+        <v>0.9988977938648662</v>
+      </c>
+      <c r="M41">
+        <v>1.000983696396985</v>
+      </c>
+      <c r="N41">
+        <v>1.000983696396985</v>
+      </c>
+      <c r="O41">
+        <v>1.001290876311535</v>
+      </c>
+      <c r="P41">
+        <v>1.000600881499041</v>
+      </c>
+      <c r="Q41">
+        <v>1.000600881499041</v>
+      </c>
+      <c r="R41">
+        <v>1.000409474050069</v>
+      </c>
+      <c r="S41">
+        <v>1.000409474050069</v>
+      </c>
+      <c r="T41">
+        <v>0.9999602002490016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9800540352834601</v>
+      </c>
+      <c r="D42">
+        <v>1.083770110842566</v>
+      </c>
+      <c r="E42">
+        <v>0.97850382555052</v>
+      </c>
+      <c r="F42">
+        <v>1.083770110842566</v>
+      </c>
+      <c r="G42">
+        <v>0.978955783163636</v>
+      </c>
+      <c r="H42">
+        <v>0.9800540352834601</v>
+      </c>
+      <c r="I42">
+        <v>0.9423815956956555</v>
+      </c>
+      <c r="J42">
+        <v>1.046432328293911</v>
+      </c>
+      <c r="K42">
+        <v>0.9800540352834601</v>
+      </c>
+      <c r="L42">
+        <v>0.97850382555052</v>
+      </c>
+      <c r="M42">
+        <v>1.031136968196543</v>
+      </c>
+      <c r="N42">
+        <v>1.031136968196543</v>
+      </c>
+      <c r="O42">
+        <v>1.036235421562332</v>
+      </c>
+      <c r="P42">
+        <v>1.014109323892182</v>
+      </c>
+      <c r="Q42">
+        <v>1.014109323892182</v>
+      </c>
+      <c r="R42">
+        <v>1.005595501740002</v>
+      </c>
+      <c r="S42">
+        <v>1.005595501740002</v>
+      </c>
+      <c r="T42">
+        <v>1.001682946471625</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9984165034208764</v>
+        <v>0.9997300033019333</v>
       </c>
       <c r="D3">
-        <v>1.006682875984724</v>
+        <v>1.001037090759158</v>
       </c>
       <c r="E3">
-        <v>0.998280824243695</v>
+        <v>0.9997466848079257</v>
       </c>
       <c r="F3">
-        <v>0.9984165034208764</v>
+        <v>1.001037090759158</v>
       </c>
       <c r="G3">
-        <v>0.995389684698071</v>
+        <v>0.9997418200285424</v>
       </c>
       <c r="H3">
-        <v>1.003706984602589</v>
+        <v>0.9997300033019333</v>
       </c>
       <c r="I3">
-        <v>0.9983203792005637</v>
+        <v>0.9993276679494379</v>
       </c>
       <c r="J3">
-        <v>1.006682875984724</v>
+        <v>1.000566541628783</v>
       </c>
       <c r="K3">
-        <v>0.9984165034208764</v>
+        <v>0.9997300033019333</v>
       </c>
       <c r="L3">
-        <v>0.998280824243695</v>
+        <v>0.9997466848079257</v>
       </c>
       <c r="M3">
-        <v>1.002481850114209</v>
+        <v>1.000391887783542</v>
       </c>
       <c r="N3">
-        <v>1.002481850114209</v>
+        <v>1.000391887783542</v>
       </c>
       <c r="O3">
-        <v>1.002890228277002</v>
+        <v>1.000450105731956</v>
       </c>
       <c r="P3">
-        <v>1.001126734549765</v>
+        <v>1.000171259623006</v>
       </c>
       <c r="Q3">
-        <v>1.001126734549765</v>
+        <v>1.000171259623006</v>
       </c>
       <c r="R3">
-        <v>1.000449176767543</v>
+        <v>1.000060945542738</v>
       </c>
       <c r="S3">
-        <v>1.000449176767543</v>
+        <v>1.000060945542738</v>
       </c>
       <c r="T3">
-        <v>1.00013287535842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000024968079297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9969422320005472</v>
+        <v>1.004735308558549</v>
       </c>
       <c r="D4">
-        <v>1.012901734907552</v>
+        <v>0.9847249564439378</v>
       </c>
       <c r="E4">
-        <v>0.996681417728606</v>
+        <v>1.003309567733144</v>
       </c>
       <c r="F4">
-        <v>0.9969422320005472</v>
+        <v>0.9847249564439378</v>
       </c>
       <c r="G4">
-        <v>0.9911007671395456</v>
+        <v>1.003725235717121</v>
       </c>
       <c r="H4">
-        <v>1.007156316701217</v>
+        <v>1.004735308558549</v>
       </c>
       <c r="I4">
-        <v>0.9967574553995611</v>
+        <v>1.008553946467772</v>
       </c>
       <c r="J4">
-        <v>1.012901734907552</v>
+        <v>0.9919286851875224</v>
       </c>
       <c r="K4">
-        <v>0.9969422320005472</v>
+        <v>1.004735308558549</v>
       </c>
       <c r="L4">
-        <v>0.996681417728606</v>
+        <v>1.003309567733144</v>
       </c>
       <c r="M4">
-        <v>1.004791576318079</v>
+        <v>0.9940172620885409</v>
       </c>
       <c r="N4">
-        <v>1.004791576318079</v>
+        <v>0.9940172620885409</v>
       </c>
       <c r="O4">
-        <v>1.005579823112458</v>
+        <v>0.9933210697882014</v>
       </c>
       <c r="P4">
-        <v>1.002175128212235</v>
+        <v>0.9975899442452102</v>
       </c>
       <c r="Q4">
-        <v>1.002175128212235</v>
+        <v>0.9975899442452102</v>
       </c>
       <c r="R4">
-        <v>1.000866904159313</v>
+        <v>0.9993762853235448</v>
       </c>
       <c r="S4">
-        <v>1.000866904159313</v>
+        <v>0.9993762853235448</v>
       </c>
       <c r="T4">
-        <v>1.000256653979505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994962833513411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.994123307797587</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="D5">
-        <v>1.024734959273292</v>
+        <v>1.069832454841497</v>
       </c>
       <c r="E5">
-        <v>0.9936456756579407</v>
+        <v>0.9830003622982708</v>
       </c>
       <c r="F5">
-        <v>0.994123307797587</v>
+        <v>1.069832454841497</v>
       </c>
       <c r="G5">
-        <v>0.982964154595072</v>
+        <v>0.982626094279538</v>
       </c>
       <c r="H5">
-        <v>1.013714773337744</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="I5">
-        <v>0.9937849243453009</v>
+        <v>0.954912151347261</v>
       </c>
       <c r="J5">
-        <v>1.024734959273292</v>
+        <v>1.038110761476945</v>
       </c>
       <c r="K5">
-        <v>0.994123307797587</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="L5">
-        <v>0.9936456756579407</v>
+        <v>0.9830003622982708</v>
       </c>
       <c r="M5">
-        <v>1.009190317465616</v>
+        <v>1.026416408569884</v>
       </c>
       <c r="N5">
-        <v>1.009190317465616</v>
+        <v>1.026416408569884</v>
       </c>
       <c r="O5">
-        <v>1.010698469422992</v>
+        <v>1.030314526205571</v>
       </c>
       <c r="P5">
-        <v>1.004167980909606</v>
+        <v>1.011516481894812</v>
       </c>
       <c r="Q5">
-        <v>1.004167980909606</v>
+        <v>1.011516481894812</v>
       </c>
       <c r="R5">
-        <v>1.001656812631601</v>
+        <v>1.004066518557276</v>
       </c>
       <c r="S5">
-        <v>1.001656812631601</v>
+        <v>1.004066518557276</v>
       </c>
       <c r="T5">
-        <v>1.000494632501156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.001699742131363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.991371668182053</v>
+        <v>0.9361906363707125</v>
       </c>
       <c r="D6">
-        <v>1.036283888575724</v>
+        <v>1.239631837686856</v>
       </c>
       <c r="E6">
-        <v>0.9906831015495905</v>
+        <v>0.9422594833658676</v>
       </c>
       <c r="F6">
-        <v>0.991371668182053</v>
+        <v>1.239631837686856</v>
       </c>
       <c r="G6">
-        <v>0.9750237956878859</v>
+        <v>0.9404901372845706</v>
       </c>
       <c r="H6">
-        <v>1.020115499873508</v>
+        <v>0.9361906363707125</v>
       </c>
       <c r="I6">
-        <v>0.9908838550960989</v>
+        <v>0.8471812569545611</v>
       </c>
       <c r="J6">
-        <v>1.036283888575724</v>
+        <v>1.130393014387728</v>
       </c>
       <c r="K6">
-        <v>0.991371668182053</v>
+        <v>0.9361906363707125</v>
       </c>
       <c r="L6">
-        <v>0.9906831015495905</v>
+        <v>0.9422594833658676</v>
       </c>
       <c r="M6">
-        <v>1.013483495062657</v>
+        <v>1.090945660526362</v>
       </c>
       <c r="N6">
-        <v>1.013483495062657</v>
+        <v>1.090945660526362</v>
       </c>
       <c r="O6">
-        <v>1.015694163332941</v>
+        <v>1.104094778480151</v>
       </c>
       <c r="P6">
-        <v>1.006112886102456</v>
+        <v>1.039360652474479</v>
       </c>
       <c r="Q6">
-        <v>1.006112886102456</v>
+        <v>1.039360652474479</v>
       </c>
       <c r="R6">
-        <v>1.002427581622355</v>
+        <v>1.013568148448537</v>
       </c>
       <c r="S6">
-        <v>1.002427581622355</v>
+        <v>1.013568148448537</v>
       </c>
       <c r="T6">
-        <v>1.00072696816081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.006024394341716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998827501451564</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="D7">
-        <v>1.000446266389896</v>
+        <v>1.006904412911934</v>
       </c>
       <c r="E7">
-        <v>0.9998915905350169</v>
+        <v>0.9982245128527812</v>
       </c>
       <c r="F7">
-        <v>0.9998827501451564</v>
+        <v>1.006904412911934</v>
       </c>
       <c r="G7">
-        <v>0.9997125897489934</v>
+        <v>0.9982648241608254</v>
       </c>
       <c r="H7">
-        <v>1.000243402923784</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="I7">
-        <v>0.9998890118568228</v>
+        <v>0.9952390259070443</v>
       </c>
       <c r="J7">
-        <v>1.000446266389896</v>
+        <v>1.003829431191527</v>
       </c>
       <c r="K7">
-        <v>0.9998827501451564</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="L7">
-        <v>0.9998915905350169</v>
+        <v>0.9982245128527812</v>
       </c>
       <c r="M7">
-        <v>1.000168928462456</v>
+        <v>1.002564462882358</v>
       </c>
       <c r="N7">
-        <v>1.000168928462456</v>
+        <v>1.002564462882358</v>
       </c>
       <c r="O7">
-        <v>1.000193753282899</v>
+        <v>1.002986118985414</v>
       </c>
       <c r="P7">
-        <v>1.000073535690023</v>
+        <v>1.001163904694792</v>
       </c>
       <c r="Q7">
-        <v>1.000073535690023</v>
+        <v>1.001163904694792</v>
       </c>
       <c r="R7">
-        <v>1.000025839303806</v>
+        <v>1.00046362560101</v>
       </c>
       <c r="S7">
-        <v>1.000025839303806</v>
+        <v>1.00046362560101</v>
       </c>
       <c r="T7">
-        <v>1.000010935266612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000137499223962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9997300033019333</v>
+        <v>0.9998503731134427</v>
       </c>
       <c r="D8">
-        <v>1.001037090759158</v>
+        <v>1.000591287493226</v>
       </c>
       <c r="E8">
-        <v>0.9997466848079257</v>
+        <v>0.999853180550645</v>
       </c>
       <c r="F8">
-        <v>0.9997300033019333</v>
+        <v>1.000591287493226</v>
       </c>
       <c r="G8">
-        <v>0.9993276679494378</v>
+        <v>0.9998523610804048</v>
       </c>
       <c r="H8">
-        <v>1.000566541628783</v>
+        <v>0.9998503731134427</v>
       </c>
       <c r="I8">
-        <v>0.9997418200285422</v>
+        <v>0.9996090144214869</v>
       </c>
       <c r="J8">
-        <v>1.001037090759158</v>
+        <v>1.000324561050013</v>
       </c>
       <c r="K8">
-        <v>0.9997300033019333</v>
+        <v>0.9998503731134427</v>
       </c>
       <c r="L8">
-        <v>0.9997466848079257</v>
+        <v>0.999853180550645</v>
       </c>
       <c r="M8">
-        <v>1.000391887783542</v>
+        <v>1.000222234021936</v>
       </c>
       <c r="N8">
-        <v>1.000391887783542</v>
+        <v>1.000222234021936</v>
       </c>
       <c r="O8">
-        <v>1.000450105731956</v>
+        <v>1.000256343031295</v>
       </c>
       <c r="P8">
-        <v>1.000171259623006</v>
+        <v>1.000098280385771</v>
       </c>
       <c r="Q8">
-        <v>1.000171259623006</v>
+        <v>1.000098280385771</v>
       </c>
       <c r="R8">
-        <v>1.000060945542738</v>
+        <v>1.000036303567689</v>
       </c>
       <c r="S8">
-        <v>1.000060945542738</v>
+        <v>1.000036303567689</v>
       </c>
       <c r="T8">
-        <v>1.000024968079297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000013462951536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996493323894974</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="D9">
-        <v>1.001375884524083</v>
+        <v>1.012901734907552</v>
       </c>
       <c r="E9">
-        <v>0.9996597484487062</v>
+        <v>0.996681417728606</v>
       </c>
       <c r="F9">
-        <v>0.9996493323894974</v>
+        <v>1.012901734907552</v>
       </c>
       <c r="G9">
-        <v>0.9990946448547211</v>
+        <v>0.9967574553995612</v>
       </c>
       <c r="H9">
-        <v>1.000754328260677</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="I9">
-        <v>0.9996567106590847</v>
+        <v>0.9911007671395456</v>
       </c>
       <c r="J9">
-        <v>1.001375884524083</v>
+        <v>1.007156316701217</v>
       </c>
       <c r="K9">
-        <v>0.9996493323894974</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="L9">
-        <v>0.9996597484487062</v>
+        <v>0.996681417728606</v>
       </c>
       <c r="M9">
-        <v>1.000517816486394</v>
+        <v>1.004791576318079</v>
       </c>
       <c r="N9">
-        <v>1.000517816486394</v>
+        <v>1.004791576318079</v>
       </c>
       <c r="O9">
-        <v>1.000596653744489</v>
+        <v>1.005579823112458</v>
       </c>
       <c r="P9">
-        <v>1.000228321787429</v>
+        <v>1.002175128212235</v>
       </c>
       <c r="Q9">
-        <v>1.000228321787429</v>
+        <v>1.002175128212235</v>
       </c>
       <c r="R9">
-        <v>1.000083574437946</v>
+        <v>1.000866904159313</v>
       </c>
       <c r="S9">
-        <v>1.000083574437946</v>
+        <v>1.000866904159313</v>
       </c>
       <c r="T9">
-        <v>1.000031774856128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000256653979505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9992142521063629</v>
+        <v>0.9351647233141258</v>
       </c>
       <c r="D10">
-        <v>1.003043067328038</v>
+        <v>1.243248170639257</v>
       </c>
       <c r="E10">
-        <v>0.9992531112813164</v>
+        <v>0.9414230837539592</v>
       </c>
       <c r="F10">
-        <v>0.9992142521063629</v>
+        <v>1.243248170639257</v>
       </c>
       <c r="G10">
-        <v>0.998015698339994</v>
+        <v>0.9395984854393904</v>
       </c>
       <c r="H10">
-        <v>1.001664696742958</v>
+        <v>0.9351647233141258</v>
       </c>
       <c r="I10">
-        <v>0.9992417806078145</v>
+        <v>0.8449869547853028</v>
       </c>
       <c r="J10">
-        <v>1.003043067328038</v>
+        <v>1.132338138982971</v>
       </c>
       <c r="K10">
-        <v>0.9992142521063629</v>
+        <v>0.9351647233141258</v>
       </c>
       <c r="L10">
-        <v>0.9992531112813164</v>
+        <v>0.9414230837539592</v>
       </c>
       <c r="M10">
-        <v>1.001148089304677</v>
+        <v>1.092335627196608</v>
       </c>
       <c r="N10">
-        <v>1.001148089304677</v>
+        <v>1.092335627196608</v>
       </c>
       <c r="O10">
-        <v>1.001320291784104</v>
+        <v>1.105669797792062</v>
       </c>
       <c r="P10">
-        <v>1.000503476905239</v>
+        <v>1.039945325902447</v>
       </c>
       <c r="Q10">
-        <v>1.000503476905239</v>
+        <v>1.039945325902447</v>
       </c>
       <c r="R10">
-        <v>1.00018117070552</v>
+        <v>1.013750175255367</v>
       </c>
       <c r="S10">
-        <v>1.00018117070552</v>
+        <v>1.013750175255367</v>
       </c>
       <c r="T10">
-        <v>1.000072101067747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.006126592819168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9987764178989033</v>
+        <v>1.000660709905144</v>
       </c>
       <c r="D11">
-        <v>1.004827798530688</v>
+        <v>1.004550963423705</v>
       </c>
       <c r="E11">
-        <v>0.9988022880813106</v>
+        <v>0.9978631203784024</v>
       </c>
       <c r="F11">
-        <v>0.9987764178989033</v>
+        <v>1.004550963423705</v>
       </c>
       <c r="G11">
-        <v>0.9968110297997075</v>
+        <v>0.9986787433150305</v>
       </c>
       <c r="H11">
-        <v>1.002649307173324</v>
+        <v>1.000660709905144</v>
       </c>
       <c r="I11">
-        <v>0.9987947453535956</v>
+        <v>0.9937687825814491</v>
       </c>
       <c r="J11">
-        <v>1.004827798530688</v>
+        <v>1.003150473798971</v>
       </c>
       <c r="K11">
-        <v>0.9987764178989033</v>
+        <v>1.000660709905144</v>
       </c>
       <c r="L11">
-        <v>0.9988022880813106</v>
+        <v>0.9978631203784024</v>
       </c>
       <c r="M11">
-        <v>1.001815043305999</v>
+        <v>1.001207041901054</v>
       </c>
       <c r="N11">
-        <v>1.001815043305999</v>
+        <v>1.001207041901054</v>
       </c>
       <c r="O11">
-        <v>1.002093131261774</v>
+        <v>1.001854852533693</v>
       </c>
       <c r="P11">
-        <v>1.000802168170301</v>
+        <v>1.001024931235751</v>
       </c>
       <c r="Q11">
-        <v>1.000802168170301</v>
+        <v>1.001024931235751</v>
       </c>
       <c r="R11">
-        <v>1.000295730602451</v>
+        <v>1.000933875903099</v>
       </c>
       <c r="S11">
-        <v>1.000295730602451</v>
+        <v>1.000933875903099</v>
       </c>
       <c r="T11">
-        <v>1.000110264472922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9997787989004503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.014369839509032</v>
+        <v>0.9805682439368433</v>
       </c>
       <c r="D12">
-        <v>0.9637354397832228</v>
+        <v>1.072518404115789</v>
       </c>
       <c r="E12">
-        <v>1.006119641121082</v>
+        <v>0.9825938187473697</v>
       </c>
       <c r="F12">
-        <v>1.014369839509032</v>
+        <v>1.072518404115789</v>
       </c>
       <c r="G12">
-        <v>1.014747592515798</v>
+        <v>0.9820032697894749</v>
       </c>
       <c r="H12">
-        <v>0.9819638286793322</v>
+        <v>0.9805682439368433</v>
       </c>
       <c r="I12">
-        <v>1.008524948117354</v>
+        <v>0.9539693362631553</v>
       </c>
       <c r="J12">
-        <v>0.9637354397832228</v>
+        <v>1.039416350568417</v>
       </c>
       <c r="K12">
-        <v>1.014369839509032</v>
+        <v>0.9805682439368433</v>
       </c>
       <c r="L12">
-        <v>1.006119641121082</v>
+        <v>0.9825938187473697</v>
       </c>
       <c r="M12">
-        <v>0.9849275404521525</v>
+        <v>1.027556111431579</v>
       </c>
       <c r="N12">
-        <v>0.9849275404521525</v>
+        <v>1.027556111431579</v>
       </c>
       <c r="O12">
-        <v>0.9839396365278791</v>
+        <v>1.031509524477192</v>
       </c>
       <c r="P12">
-        <v>0.994741640137779</v>
+        <v>1.011893488933334</v>
       </c>
       <c r="Q12">
-        <v>0.994741640137779</v>
+        <v>1.011893488933334</v>
       </c>
       <c r="R12">
-        <v>0.9996486899805923</v>
+        <v>1.004062177684211</v>
       </c>
       <c r="S12">
-        <v>0.9996486899805923</v>
+        <v>1.004062177684211</v>
       </c>
       <c r="T12">
-        <v>0.9982435482876367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.001844903903508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9994418808283211</v>
+        <v>1.011979104896861</v>
       </c>
       <c r="D13">
-        <v>0.9933063835955649</v>
+        <v>0.9526347233970922</v>
       </c>
       <c r="E13">
-        <v>1.002913139413011</v>
+        <v>1.011764772874222</v>
       </c>
       <c r="F13">
-        <v>0.9994418808283211</v>
+        <v>0.9526347233970922</v>
       </c>
       <c r="G13">
-        <v>1.008429562082902</v>
+        <v>1.011827257693267</v>
       </c>
       <c r="H13">
-        <v>0.9955151642948434</v>
+        <v>1.011979104896861</v>
       </c>
       <c r="I13">
-        <v>1.001901106146708</v>
+        <v>1.031331896254172</v>
       </c>
       <c r="J13">
-        <v>0.9933063835955649</v>
+        <v>0.9739987026361805</v>
       </c>
       <c r="K13">
-        <v>0.9994418808283211</v>
+        <v>1.011979104896861</v>
       </c>
       <c r="L13">
-        <v>1.002913139413011</v>
+        <v>1.011764772874222</v>
       </c>
       <c r="M13">
-        <v>0.9981097615042878</v>
+        <v>0.9821997481356569</v>
       </c>
       <c r="N13">
-        <v>0.9981097615042878</v>
+        <v>0.9821997481356569</v>
       </c>
       <c r="O13">
-        <v>0.9972448957678063</v>
+        <v>0.9794660663024981</v>
       </c>
       <c r="P13">
-        <v>0.9985538012789655</v>
+        <v>0.9921262003893917</v>
       </c>
       <c r="Q13">
-        <v>0.9985538012789655</v>
+        <v>0.9921262003893917</v>
       </c>
       <c r="R13">
-        <v>0.9987758211663044</v>
+        <v>0.9970894265162591</v>
       </c>
       <c r="S13">
-        <v>0.9987758211663044</v>
+        <v>0.9970894265162591</v>
       </c>
       <c r="T13">
-        <v>1.000251206060225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9989227429586321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.016711760342585</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="D14">
-        <v>0.92505585301876</v>
+        <v>1.420376399999998</v>
       </c>
       <c r="E14">
-        <v>1.019860629219225</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="F14">
-        <v>1.016711760342585</v>
+        <v>1.420376399999998</v>
       </c>
       <c r="G14">
-        <v>1.053561470836624</v>
+        <v>0.8956312399999998</v>
       </c>
       <c r="H14">
-        <v>0.9580519823176035</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="I14">
-        <v>1.018942583935212</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="J14">
-        <v>0.92505585301876</v>
+        <v>1.228648000000002</v>
       </c>
       <c r="K14">
-        <v>1.016711760342585</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="L14">
-        <v>1.019860629219225</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="M14">
-        <v>0.9724582411189927</v>
+        <v>1.159615709999999</v>
       </c>
       <c r="N14">
-        <v>0.9724582411189927</v>
+        <v>1.159615709999999</v>
       </c>
       <c r="O14">
-        <v>0.9676561548518631</v>
+        <v>1.182626473333333</v>
       </c>
       <c r="P14">
-        <v>0.9872094141935234</v>
+        <v>1.06900963</v>
       </c>
       <c r="Q14">
-        <v>0.9872094141935234</v>
+        <v>1.06900963</v>
       </c>
       <c r="R14">
-        <v>0.9945850007307886</v>
+        <v>1.02370659</v>
       </c>
       <c r="S14">
-        <v>0.9945850007307886</v>
+        <v>1.02370659</v>
       </c>
       <c r="T14">
-        <v>0.9986973799450016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.01061573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.005927421620521</v>
+        <v>1.0396018</v>
       </c>
       <c r="D15">
-        <v>0.9796151116138745</v>
+        <v>0.88779747</v>
       </c>
       <c r="E15">
-        <v>1.004634448438814</v>
+        <v>1.0216333</v>
       </c>
       <c r="F15">
-        <v>1.005927421620521</v>
+        <v>0.88779747</v>
       </c>
       <c r="G15">
-        <v>1.012112248171304</v>
+        <v>1.0268719</v>
       </c>
       <c r="H15">
-        <v>0.9890875483263279</v>
+        <v>1.0396018</v>
       </c>
       <c r="I15">
-        <v>1.00501141069853</v>
+        <v>1.0542662</v>
       </c>
       <c r="J15">
-        <v>0.9796151116138745</v>
+        <v>0.94244704</v>
       </c>
       <c r="K15">
-        <v>1.005927421620521</v>
+        <v>1.0396018</v>
       </c>
       <c r="L15">
-        <v>1.004634448438814</v>
+        <v>1.0216333</v>
       </c>
       <c r="M15">
-        <v>0.9921247800263444</v>
+        <v>0.954715385</v>
       </c>
       <c r="N15">
-        <v>0.9921247800263444</v>
+        <v>0.954715385</v>
       </c>
       <c r="O15">
-        <v>0.9911123694596723</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P15">
-        <v>0.9967256605577366</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q15">
-        <v>0.9967256605577366</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R15">
-        <v>0.9990261008234327</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S15">
-        <v>0.9990261008234327</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T15">
-        <v>0.9993980314782287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9954362849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999837951951559</v>
+        <v>1.0396018</v>
       </c>
       <c r="D16">
-        <v>1.000033542013678</v>
+        <v>0.88779747</v>
       </c>
       <c r="E16">
-        <v>0.9999959583051831</v>
+        <v>1.0216333</v>
       </c>
       <c r="F16">
-        <v>0.9999837951951559</v>
+        <v>0.88779747</v>
       </c>
       <c r="G16">
-        <v>0.9999915368186429</v>
+        <v>1.0268719</v>
       </c>
       <c r="H16">
-        <v>1.000015635461891</v>
+        <v>1.0396018</v>
       </c>
       <c r="I16">
-        <v>0.9999924109408161</v>
+        <v>1.0542662</v>
       </c>
       <c r="J16">
-        <v>1.000033542013678</v>
+        <v>0.94244704</v>
       </c>
       <c r="K16">
-        <v>0.9999837951951559</v>
+        <v>1.0396018</v>
       </c>
       <c r="L16">
-        <v>0.9999959583051831</v>
+        <v>1.0216333</v>
       </c>
       <c r="M16">
-        <v>1.00001475015943</v>
+        <v>0.954715385</v>
       </c>
       <c r="N16">
-        <v>1.00001475015943</v>
+        <v>0.954715385</v>
       </c>
       <c r="O16">
-        <v>1.000015045260251</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P16">
-        <v>1.000004431838005</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q16">
-        <v>1.000004431838005</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R16">
-        <v>0.999999272677293</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S16">
-        <v>0.999999272677293</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T16">
-        <v>1.000002146455895</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.999850373113443</v>
+        <v>1.0529286</v>
       </c>
       <c r="D17">
-        <v>1.000591287493226</v>
+        <v>0.74235861</v>
       </c>
       <c r="E17">
-        <v>0.999853180550645</v>
+        <v>1.0707891</v>
       </c>
       <c r="F17">
-        <v>0.999850373113443</v>
+        <v>0.74235861</v>
       </c>
       <c r="G17">
-        <v>0.9996090144214873</v>
+        <v>1.065582</v>
       </c>
       <c r="H17">
-        <v>1.000324561050013</v>
+        <v>1.0529286</v>
       </c>
       <c r="I17">
-        <v>0.9998523610804045</v>
+        <v>1.192173</v>
       </c>
       <c r="J17">
-        <v>1.000591287493226</v>
+        <v>0.8541638</v>
       </c>
       <c r="K17">
-        <v>0.999850373113443</v>
+        <v>1.0529286</v>
       </c>
       <c r="L17">
-        <v>0.999853180550645</v>
+        <v>1.0707891</v>
       </c>
       <c r="M17">
-        <v>1.000222234021936</v>
+        <v>0.906573855</v>
       </c>
       <c r="N17">
-        <v>1.000222234021936</v>
+        <v>0.906573855</v>
       </c>
       <c r="O17">
-        <v>1.000256343031295</v>
+        <v>0.8891038366666667</v>
       </c>
       <c r="P17">
-        <v>1.000098280385771</v>
+        <v>0.95535877</v>
       </c>
       <c r="Q17">
-        <v>1.000098280385771</v>
+        <v>0.9553587700000001</v>
       </c>
       <c r="R17">
-        <v>1.000036303567689</v>
+        <v>0.9797512275000001</v>
       </c>
       <c r="S17">
-        <v>1.000036303567689</v>
+        <v>0.9797512275000001</v>
       </c>
       <c r="T17">
-        <v>1.000013462951536</v>
+        <v>0.9963325183333335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9995017206906265</v>
+        <v>0.9647394016438358</v>
       </c>
       <c r="D18">
-        <v>1.002064203086009</v>
+        <v>1.150439142876712</v>
       </c>
       <c r="E18">
-        <v>0.9994740786236306</v>
+        <v>0.9610851126027398</v>
       </c>
       <c r="F18">
-        <v>0.9995017206906265</v>
+        <v>1.150439142876712</v>
       </c>
       <c r="G18">
-        <v>0.9985922663097387</v>
+        <v>0.9621504939726021</v>
       </c>
       <c r="H18">
-        <v>1.001141712634882</v>
+        <v>0.9647394016438358</v>
       </c>
       <c r="I18">
-        <v>0.9994821330995862</v>
+        <v>0.8955308997260273</v>
       </c>
       <c r="J18">
-        <v>1.002064203086009</v>
+        <v>1.083587248219179</v>
       </c>
       <c r="K18">
-        <v>0.9995017206906265</v>
+        <v>0.9647394016438358</v>
       </c>
       <c r="L18">
-        <v>0.9994740786236306</v>
+        <v>0.9610851126027398</v>
       </c>
       <c r="M18">
-        <v>1.00076914085482</v>
+        <v>1.055762127739726</v>
       </c>
       <c r="N18">
-        <v>1.00076914085482</v>
+        <v>1.055762127739726</v>
       </c>
       <c r="O18">
-        <v>1.000893331448174</v>
+        <v>1.065037167899544</v>
       </c>
       <c r="P18">
-        <v>1.000346667466755</v>
+        <v>1.025421219041096</v>
       </c>
       <c r="Q18">
-        <v>1.000346667466755</v>
+        <v>1.025421219041096</v>
       </c>
       <c r="R18">
-        <v>1.000135430772723</v>
+        <v>1.010250764691781</v>
       </c>
       <c r="S18">
-        <v>1.000135430772723</v>
+        <v>1.010250764691781</v>
       </c>
       <c r="T18">
-        <v>1.000042685740745</v>
+        <v>1.002922049840183</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.998862582397678</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="D19">
-        <v>1.004817411921165</v>
+        <v>0.9737200252631579</v>
       </c>
       <c r="E19">
-        <v>0.9987584562905129</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="F19">
-        <v>0.998862582397678</v>
+        <v>0.9737200252631579</v>
       </c>
       <c r="G19">
-        <v>0.9966693877618064</v>
+        <v>1.006907015789474</v>
       </c>
       <c r="H19">
-        <v>1.002673680877843</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="I19">
-        <v>0.9987888140835085</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="J19">
-        <v>1.004817411921165</v>
+        <v>0.9843569942105264</v>
       </c>
       <c r="K19">
-        <v>0.998862582397678</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="L19">
-        <v>0.9987584562905129</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="M19">
-        <v>1.001787934105839</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="N19">
-        <v>1.001787934105839</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="O19">
-        <v>1.00208318302984</v>
+        <v>0.9888273077192983</v>
       </c>
       <c r="P19">
-        <v>1.000812816869785</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="Q19">
-        <v>1.000812816869785</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="R19">
-        <v>1.000325258251759</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="S19">
-        <v>1.000325258251759</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="T19">
-        <v>1.000095055555419</v>
+        <v>1.000007965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="D20">
+        <v>0.9737200252631579</v>
+      </c>
+      <c r="E20">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="F20">
+        <v>0.9737200252631579</v>
+      </c>
+      <c r="G20">
+        <v>1.006907015789474</v>
+      </c>
+      <c r="H20">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="I20">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="J20">
+        <v>0.9843569942105264</v>
+      </c>
+      <c r="K20">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="L20">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="M20">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="N20">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="O20">
+        <v>0.9888273077192983</v>
+      </c>
+      <c r="P20">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="Q20">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="R20">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="S20">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="T20">
+        <v>1.000007965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="D21">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="E21">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="F21">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="G21">
+        <v>1.018942583935212</v>
+      </c>
+      <c r="H21">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="I21">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="J21">
+        <v>0.9580519823176037</v>
+      </c>
+      <c r="K21">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="L21">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="M21">
+        <v>0.9724582411189927</v>
+      </c>
+      <c r="N21">
+        <v>0.9724582411189927</v>
+      </c>
+      <c r="O21">
+        <v>0.9676561548518631</v>
+      </c>
+      <c r="P21">
+        <v>0.9872094141935234</v>
+      </c>
+      <c r="Q21">
+        <v>0.9872094141935234</v>
+      </c>
+      <c r="R21">
+        <v>0.9945850007307886</v>
+      </c>
+      <c r="S21">
+        <v>0.9945850007307886</v>
+      </c>
+      <c r="T21">
+        <v>0.9986973799450016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="D22">
+        <v>0.9796151116138746</v>
+      </c>
+      <c r="E22">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="F22">
+        <v>0.9796151116138746</v>
+      </c>
+      <c r="G22">
+        <v>1.00501141069853</v>
+      </c>
+      <c r="H22">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="I22">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="J22">
+        <v>0.9890875483263279</v>
+      </c>
+      <c r="K22">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="L22">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="M22">
+        <v>0.9921247800263444</v>
+      </c>
+      <c r="N22">
+        <v>0.9921247800263444</v>
+      </c>
+      <c r="O22">
+        <v>0.9911123694596723</v>
+      </c>
+      <c r="P22">
+        <v>0.9967256605577366</v>
+      </c>
+      <c r="Q22">
+        <v>0.9967256605577366</v>
+      </c>
+      <c r="R22">
+        <v>0.9990261008234327</v>
+      </c>
+      <c r="S22">
+        <v>0.9990261008234327</v>
+      </c>
+      <c r="T22">
+        <v>0.9993980314782287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="D23">
+        <v>0.9637354397832227</v>
+      </c>
+      <c r="E23">
+        <v>1.006119641121082</v>
+      </c>
+      <c r="F23">
+        <v>0.9637354397832227</v>
+      </c>
+      <c r="G23">
+        <v>1.008524948117354</v>
+      </c>
+      <c r="H23">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="I23">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="J23">
+        <v>0.9819638286793322</v>
+      </c>
+      <c r="K23">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="L23">
+        <v>1.006119641121082</v>
+      </c>
+      <c r="M23">
+        <v>0.9849275404521525</v>
+      </c>
+      <c r="N23">
+        <v>0.9849275404521525</v>
+      </c>
+      <c r="O23">
+        <v>0.9839396365278791</v>
+      </c>
+      <c r="P23">
+        <v>0.994741640137779</v>
+      </c>
+      <c r="Q23">
+        <v>0.994741640137779</v>
+      </c>
+      <c r="R23">
+        <v>0.9996486899805923</v>
+      </c>
+      <c r="S23">
+        <v>0.9996486899805923</v>
+      </c>
+      <c r="T23">
+        <v>0.9982435482876367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="D24">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="E24">
+        <v>1.002913139413011</v>
+      </c>
+      <c r="F24">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="G24">
+        <v>1.001901106146708</v>
+      </c>
+      <c r="H24">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="I24">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="J24">
+        <v>0.9955151642948434</v>
+      </c>
+      <c r="K24">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="L24">
+        <v>1.002913139413011</v>
+      </c>
+      <c r="M24">
+        <v>0.9981097615042878</v>
+      </c>
+      <c r="N24">
+        <v>0.9981097615042878</v>
+      </c>
+      <c r="O24">
+        <v>0.9972448957678063</v>
+      </c>
+      <c r="P24">
+        <v>0.9985538012789655</v>
+      </c>
+      <c r="Q24">
+        <v>0.9985538012789655</v>
+      </c>
+      <c r="R24">
+        <v>0.9987758211663044</v>
+      </c>
+      <c r="S24">
+        <v>0.9987758211663044</v>
+      </c>
+      <c r="T24">
+        <v>1.000251206060225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="D25">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="E25">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="F25">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="G25">
+        <v>1.018942583935212</v>
+      </c>
+      <c r="H25">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="I25">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="J25">
+        <v>0.9580519823176035</v>
+      </c>
+      <c r="K25">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="L25">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="M25">
+        <v>0.9724582411189927</v>
+      </c>
+      <c r="N25">
+        <v>0.9724582411189927</v>
+      </c>
+      <c r="O25">
+        <v>0.9676561548518631</v>
+      </c>
+      <c r="P25">
+        <v>0.9872094141935234</v>
+      </c>
+      <c r="Q25">
+        <v>0.9872094141935234</v>
+      </c>
+      <c r="R25">
+        <v>0.9945850007307886</v>
+      </c>
+      <c r="S25">
+        <v>0.9945850007307886</v>
+      </c>
+      <c r="T25">
+        <v>0.9986973799450016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="D26">
+        <v>0.9796151116138745</v>
+      </c>
+      <c r="E26">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="F26">
+        <v>0.9796151116138745</v>
+      </c>
+      <c r="G26">
+        <v>1.00501141069853</v>
+      </c>
+      <c r="H26">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="I26">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="J26">
+        <v>0.9890875483263279</v>
+      </c>
+      <c r="K26">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="L26">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="M26">
+        <v>0.9921247800263444</v>
+      </c>
+      <c r="N26">
+        <v>0.9921247800263444</v>
+      </c>
+      <c r="O26">
+        <v>0.9911123694596723</v>
+      </c>
+      <c r="P26">
+        <v>0.9967256605577366</v>
+      </c>
+      <c r="Q26">
+        <v>0.9967256605577366</v>
+      </c>
+      <c r="R26">
+        <v>0.9990261008234327</v>
+      </c>
+      <c r="S26">
+        <v>0.9990261008234327</v>
+      </c>
+      <c r="T26">
+        <v>0.9993980314782287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="D27">
+        <v>1.024628540296642</v>
+      </c>
+      <c r="E27">
+        <v>0.993752856513907</v>
+      </c>
+      <c r="F27">
+        <v>1.024628540296642</v>
+      </c>
+      <c r="G27">
+        <v>0.9938263331648726</v>
+      </c>
+      <c r="H27">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="I27">
+        <v>0.9832929756841892</v>
+      </c>
+      <c r="J27">
+        <v>1.013604036647411</v>
+      </c>
+      <c r="K27">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="L27">
+        <v>0.993752856513907</v>
+      </c>
+      <c r="M27">
+        <v>1.009190698405275</v>
+      </c>
+      <c r="N27">
+        <v>1.009190698405275</v>
+      </c>
+      <c r="O27">
+        <v>1.010661811152654</v>
+      </c>
+      <c r="P27">
+        <v>1.00412874750813</v>
+      </c>
+      <c r="Q27">
+        <v>1.00412874750813</v>
+      </c>
+      <c r="R27">
+        <v>1.001597772059557</v>
+      </c>
+      <c r="S27">
+        <v>1.001597772059557</v>
+      </c>
+      <c r="T27">
+        <v>1.000518264670144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.004206177357031</v>
+      </c>
+      <c r="D28">
+        <v>0.9800377669415868</v>
+      </c>
+      <c r="E28">
+        <v>1.00542631967567</v>
+      </c>
+      <c r="F28">
+        <v>0.9800377669415868</v>
+      </c>
+      <c r="G28">
+        <v>1.00507058806909</v>
+      </c>
+      <c r="H28">
+        <v>1.004206177357031</v>
+      </c>
+      <c r="I28">
+        <v>1.014702606372148</v>
+      </c>
+      <c r="J28">
+        <v>0.9887383972827868</v>
+      </c>
+      <c r="K28">
+        <v>1.004206177357031</v>
+      </c>
+      <c r="L28">
+        <v>1.00542631967567</v>
+      </c>
+      <c r="M28">
+        <v>0.9927320433086284</v>
+      </c>
+      <c r="N28">
+        <v>0.9927320433086284</v>
+      </c>
+      <c r="O28">
+        <v>0.9914008279666812</v>
+      </c>
+      <c r="P28">
+        <v>0.996556754658096</v>
+      </c>
+      <c r="Q28">
+        <v>0.996556754658096</v>
+      </c>
+      <c r="R28">
+        <v>0.9984691103328298</v>
+      </c>
+      <c r="S28">
+        <v>0.9984691103328298</v>
+      </c>
+      <c r="T28">
+        <v>0.9996969759497188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.0224492588546</v>
+      </c>
+      <c r="D29">
+        <v>0.90508485385094</v>
+      </c>
+      <c r="E29">
+        <v>1.024439629936537</v>
+      </c>
+      <c r="F29">
+        <v>0.90508485385094</v>
+      </c>
+      <c r="G29">
+        <v>1.023859330132079</v>
+      </c>
+      <c r="H29">
+        <v>1.0224492588546</v>
+      </c>
+      <c r="I29">
+        <v>1.065551477858134</v>
+      </c>
+      <c r="J29">
+        <v>0.947336042295006</v>
+      </c>
+      <c r="K29">
+        <v>1.0224492588546</v>
+      </c>
+      <c r="L29">
+        <v>1.024439629936537</v>
+      </c>
+      <c r="M29">
+        <v>0.9647622418937387</v>
+      </c>
+      <c r="N29">
+        <v>0.9647622418937387</v>
+      </c>
+      <c r="O29">
+        <v>0.9589535086941612</v>
+      </c>
+      <c r="P29">
+        <v>0.9839912475473592</v>
+      </c>
+      <c r="Q29">
+        <v>0.9839912475473592</v>
+      </c>
+      <c r="R29">
+        <v>0.9936057503741695</v>
+      </c>
+      <c r="S29">
+        <v>0.9936057503741695</v>
+      </c>
+      <c r="T29">
+        <v>0.9981200988212162</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004735308558549</v>
+        <v>0.9840410010698734</v>
       </c>
       <c r="D4">
-        <v>0.9847249564439378</v>
+        <v>1.060840862655813</v>
       </c>
       <c r="E4">
-        <v>1.003309567733144</v>
+        <v>0.9852057747192848</v>
       </c>
       <c r="F4">
-        <v>0.9847249564439378</v>
+        <v>1.060840862655813</v>
       </c>
       <c r="G4">
-        <v>1.003725235717121</v>
+        <v>0.9848661892390844</v>
       </c>
       <c r="H4">
-        <v>1.004735308558549</v>
+        <v>0.9840410010698734</v>
       </c>
       <c r="I4">
-        <v>1.008553946467772</v>
+        <v>0.9607705922488767</v>
       </c>
       <c r="J4">
-        <v>0.9919286851875224</v>
+        <v>1.033192916046018</v>
       </c>
       <c r="K4">
-        <v>1.004735308558549</v>
+        <v>0.9840410010698734</v>
       </c>
       <c r="L4">
-        <v>1.003309567733144</v>
+        <v>0.9852057747192848</v>
       </c>
       <c r="M4">
-        <v>0.9940172620885409</v>
+        <v>1.023023318687549</v>
       </c>
       <c r="N4">
-        <v>0.9940172620885409</v>
+        <v>1.023023318687549</v>
       </c>
       <c r="O4">
-        <v>0.9933210697882014</v>
+        <v>1.026413184473705</v>
       </c>
       <c r="P4">
-        <v>0.9975899442452102</v>
+        <v>1.010029212814991</v>
       </c>
       <c r="Q4">
-        <v>0.9975899442452102</v>
+        <v>1.01002921281499</v>
       </c>
       <c r="R4">
-        <v>0.9993762853235448</v>
+        <v>1.003532159878711</v>
       </c>
       <c r="S4">
-        <v>0.9993762853235448</v>
+        <v>1.003532159878711</v>
       </c>
       <c r="T4">
-        <v>0.9994962833513411</v>
+        <v>1.001486222663158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.981716628544668</v>
+        <v>1.011589419434351</v>
       </c>
       <c r="D5">
-        <v>1.069832454841497</v>
+        <v>0.9401220475741793</v>
       </c>
       <c r="E5">
-        <v>0.9830003622982708</v>
+        <v>1.016847294605122</v>
       </c>
       <c r="F5">
-        <v>1.069832454841497</v>
+        <v>0.9401220475741793</v>
       </c>
       <c r="G5">
-        <v>0.982626094279538</v>
+        <v>1.015314390448375</v>
       </c>
       <c r="H5">
-        <v>0.981716628544668</v>
+        <v>1.011589419434351</v>
       </c>
       <c r="I5">
-        <v>0.954912151347261</v>
+        <v>1.045927635186864</v>
       </c>
       <c r="J5">
-        <v>1.038110761476945</v>
+        <v>0.9658503100859955</v>
       </c>
       <c r="K5">
-        <v>0.981716628544668</v>
+        <v>1.011589419434351</v>
       </c>
       <c r="L5">
-        <v>0.9830003622982708</v>
+        <v>1.016847294605122</v>
       </c>
       <c r="M5">
-        <v>1.026416408569884</v>
+        <v>0.9784846710896509</v>
       </c>
       <c r="N5">
-        <v>1.026416408569884</v>
+        <v>0.9784846710896509</v>
       </c>
       <c r="O5">
-        <v>1.030314526205571</v>
+        <v>0.9742732174217658</v>
       </c>
       <c r="P5">
-        <v>1.011516481894812</v>
+        <v>0.9895195872045508</v>
       </c>
       <c r="Q5">
-        <v>1.011516481894812</v>
+        <v>0.9895195872045508</v>
       </c>
       <c r="R5">
-        <v>1.004066518557276</v>
+        <v>0.9950370452620008</v>
       </c>
       <c r="S5">
-        <v>1.004066518557276</v>
+        <v>0.9950370452620008</v>
       </c>
       <c r="T5">
-        <v>1.001699742131363</v>
+        <v>0.9992751828891479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9361906363707125</v>
+        <v>1.004735308558549</v>
       </c>
       <c r="D6">
-        <v>1.239631837686856</v>
+        <v>0.9847249564439378</v>
       </c>
       <c r="E6">
-        <v>0.9422594833658676</v>
+        <v>1.003309567733144</v>
       </c>
       <c r="F6">
-        <v>1.239631837686856</v>
+        <v>0.9847249564439378</v>
       </c>
       <c r="G6">
-        <v>0.9404901372845706</v>
+        <v>1.003725235717121</v>
       </c>
       <c r="H6">
-        <v>0.9361906363707125</v>
+        <v>1.004735308558549</v>
       </c>
       <c r="I6">
-        <v>0.8471812569545611</v>
+        <v>1.008553946467772</v>
       </c>
       <c r="J6">
-        <v>1.130393014387728</v>
+        <v>0.9919286851875224</v>
       </c>
       <c r="K6">
-        <v>0.9361906363707125</v>
+        <v>1.004735308558549</v>
       </c>
       <c r="L6">
-        <v>0.9422594833658676</v>
+        <v>1.003309567733144</v>
       </c>
       <c r="M6">
-        <v>1.090945660526362</v>
+        <v>0.9940172620885409</v>
       </c>
       <c r="N6">
-        <v>1.090945660526362</v>
+        <v>0.9940172620885409</v>
       </c>
       <c r="O6">
-        <v>1.104094778480151</v>
+        <v>0.9933210697882014</v>
       </c>
       <c r="P6">
-        <v>1.039360652474479</v>
+        <v>0.9975899442452102</v>
       </c>
       <c r="Q6">
-        <v>1.039360652474479</v>
+        <v>0.9975899442452102</v>
       </c>
       <c r="R6">
-        <v>1.013568148448537</v>
+        <v>0.9993762853235448</v>
       </c>
       <c r="S6">
-        <v>1.013568148448537</v>
+        <v>0.9993762853235448</v>
       </c>
       <c r="T6">
-        <v>1.006024394341716</v>
+        <v>0.9994962833513411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9983627883196621</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="D7">
-        <v>1.006904412911934</v>
+        <v>1.069832454841497</v>
       </c>
       <c r="E7">
-        <v>0.9982245128527812</v>
+        <v>0.9830003622982708</v>
       </c>
       <c r="F7">
-        <v>1.006904412911934</v>
+        <v>1.069832454841497</v>
       </c>
       <c r="G7">
-        <v>0.9982648241608254</v>
+        <v>0.982626094279538</v>
       </c>
       <c r="H7">
-        <v>0.9983627883196621</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="I7">
-        <v>0.9952390259070443</v>
+        <v>0.954912151347261</v>
       </c>
       <c r="J7">
-        <v>1.003829431191527</v>
+        <v>1.038110761476945</v>
       </c>
       <c r="K7">
-        <v>0.9983627883196621</v>
+        <v>0.981716628544668</v>
       </c>
       <c r="L7">
-        <v>0.9982245128527812</v>
+        <v>0.9830003622982708</v>
       </c>
       <c r="M7">
-        <v>1.002564462882358</v>
+        <v>1.026416408569884</v>
       </c>
       <c r="N7">
-        <v>1.002564462882358</v>
+        <v>1.026416408569884</v>
       </c>
       <c r="O7">
-        <v>1.002986118985414</v>
+        <v>1.030314526205571</v>
       </c>
       <c r="P7">
-        <v>1.001163904694792</v>
+        <v>1.011516481894812</v>
       </c>
       <c r="Q7">
-        <v>1.001163904694792</v>
+        <v>1.011516481894812</v>
       </c>
       <c r="R7">
-        <v>1.00046362560101</v>
+        <v>1.004066518557276</v>
       </c>
       <c r="S7">
-        <v>1.00046362560101</v>
+        <v>1.004066518557276</v>
       </c>
       <c r="T7">
-        <v>1.000137499223962</v>
+        <v>1.001699742131363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998503731134427</v>
+        <v>0.9361906363707125</v>
       </c>
       <c r="D8">
-        <v>1.000591287493226</v>
+        <v>1.239631837686856</v>
       </c>
       <c r="E8">
-        <v>0.999853180550645</v>
+        <v>0.9422594833658676</v>
       </c>
       <c r="F8">
-        <v>1.000591287493226</v>
+        <v>1.239631837686856</v>
       </c>
       <c r="G8">
-        <v>0.9998523610804048</v>
+        <v>0.9404901372845706</v>
       </c>
       <c r="H8">
-        <v>0.9998503731134427</v>
+        <v>0.9361906363707125</v>
       </c>
       <c r="I8">
-        <v>0.9996090144214869</v>
+        <v>0.8471812569545611</v>
       </c>
       <c r="J8">
-        <v>1.000324561050013</v>
+        <v>1.130393014387728</v>
       </c>
       <c r="K8">
-        <v>0.9998503731134427</v>
+        <v>0.9361906363707125</v>
       </c>
       <c r="L8">
-        <v>0.999853180550645</v>
+        <v>0.9422594833658676</v>
       </c>
       <c r="M8">
-        <v>1.000222234021936</v>
+        <v>1.090945660526362</v>
       </c>
       <c r="N8">
-        <v>1.000222234021936</v>
+        <v>1.090945660526362</v>
       </c>
       <c r="O8">
-        <v>1.000256343031295</v>
+        <v>1.104094778480151</v>
       </c>
       <c r="P8">
-        <v>1.000098280385771</v>
+        <v>1.039360652474479</v>
       </c>
       <c r="Q8">
-        <v>1.000098280385771</v>
+        <v>1.039360652474479</v>
       </c>
       <c r="R8">
-        <v>1.000036303567689</v>
+        <v>1.013568148448537</v>
       </c>
       <c r="S8">
-        <v>1.000036303567689</v>
+        <v>1.013568148448537</v>
       </c>
       <c r="T8">
-        <v>1.000013462951536</v>
+        <v>1.006024394341716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9969422320005472</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="D9">
-        <v>1.012901734907552</v>
+        <v>1.006904412911934</v>
       </c>
       <c r="E9">
-        <v>0.996681417728606</v>
+        <v>0.9982245128527812</v>
       </c>
       <c r="F9">
-        <v>1.012901734907552</v>
+        <v>1.006904412911934</v>
       </c>
       <c r="G9">
-        <v>0.9967574553995612</v>
+        <v>0.9982648241608254</v>
       </c>
       <c r="H9">
-        <v>0.9969422320005472</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="I9">
-        <v>0.9911007671395456</v>
+        <v>0.9952390259070443</v>
       </c>
       <c r="J9">
-        <v>1.007156316701217</v>
+        <v>1.003829431191527</v>
       </c>
       <c r="K9">
-        <v>0.9969422320005472</v>
+        <v>0.9983627883196621</v>
       </c>
       <c r="L9">
-        <v>0.996681417728606</v>
+        <v>0.9982245128527812</v>
       </c>
       <c r="M9">
-        <v>1.004791576318079</v>
+        <v>1.002564462882358</v>
       </c>
       <c r="N9">
-        <v>1.004791576318079</v>
+        <v>1.002564462882358</v>
       </c>
       <c r="O9">
-        <v>1.005579823112458</v>
+        <v>1.002986118985414</v>
       </c>
       <c r="P9">
-        <v>1.002175128212235</v>
+        <v>1.001163904694792</v>
       </c>
       <c r="Q9">
-        <v>1.002175128212235</v>
+        <v>1.001163904694792</v>
       </c>
       <c r="R9">
-        <v>1.000866904159313</v>
+        <v>1.00046362560101</v>
       </c>
       <c r="S9">
-        <v>1.000866904159313</v>
+        <v>1.00046362560101</v>
       </c>
       <c r="T9">
-        <v>1.000256653979505</v>
+        <v>1.000137499223962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9351647233141258</v>
+        <v>0.9998503731134427</v>
       </c>
       <c r="D10">
-        <v>1.243248170639257</v>
+        <v>1.000591287493226</v>
       </c>
       <c r="E10">
-        <v>0.9414230837539592</v>
+        <v>0.999853180550645</v>
       </c>
       <c r="F10">
-        <v>1.243248170639257</v>
+        <v>1.000591287493226</v>
       </c>
       <c r="G10">
-        <v>0.9395984854393904</v>
+        <v>0.9998523610804048</v>
       </c>
       <c r="H10">
-        <v>0.9351647233141258</v>
+        <v>0.9998503731134427</v>
       </c>
       <c r="I10">
-        <v>0.8449869547853028</v>
+        <v>0.9996090144214869</v>
       </c>
       <c r="J10">
-        <v>1.132338138982971</v>
+        <v>1.000324561050013</v>
       </c>
       <c r="K10">
-        <v>0.9351647233141258</v>
+        <v>0.9998503731134427</v>
       </c>
       <c r="L10">
-        <v>0.9414230837539592</v>
+        <v>0.999853180550645</v>
       </c>
       <c r="M10">
-        <v>1.092335627196608</v>
+        <v>1.000222234021936</v>
       </c>
       <c r="N10">
-        <v>1.092335627196608</v>
+        <v>1.000222234021936</v>
       </c>
       <c r="O10">
-        <v>1.105669797792062</v>
+        <v>1.000256343031295</v>
       </c>
       <c r="P10">
-        <v>1.039945325902447</v>
+        <v>1.000098280385771</v>
       </c>
       <c r="Q10">
-        <v>1.039945325902447</v>
+        <v>1.000098280385771</v>
       </c>
       <c r="R10">
-        <v>1.013750175255367</v>
+        <v>1.000036303567689</v>
       </c>
       <c r="S10">
-        <v>1.013750175255367</v>
+        <v>1.000036303567689</v>
       </c>
       <c r="T10">
-        <v>1.006126592819168</v>
+        <v>1.000013462951536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000660709905144</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="D11">
-        <v>1.004550963423705</v>
+        <v>1.012901734907552</v>
       </c>
       <c r="E11">
-        <v>0.9978631203784024</v>
+        <v>0.996681417728606</v>
       </c>
       <c r="F11">
-        <v>1.004550963423705</v>
+        <v>1.012901734907552</v>
       </c>
       <c r="G11">
-        <v>0.9986787433150305</v>
+        <v>0.9967574553995612</v>
       </c>
       <c r="H11">
-        <v>1.000660709905144</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="I11">
-        <v>0.9937687825814491</v>
+        <v>0.9911007671395456</v>
       </c>
       <c r="J11">
-        <v>1.003150473798971</v>
+        <v>1.007156316701217</v>
       </c>
       <c r="K11">
-        <v>1.000660709905144</v>
+        <v>0.9969422320005472</v>
       </c>
       <c r="L11">
-        <v>0.9978631203784024</v>
+        <v>0.996681417728606</v>
       </c>
       <c r="M11">
-        <v>1.001207041901054</v>
+        <v>1.004791576318079</v>
       </c>
       <c r="N11">
-        <v>1.001207041901054</v>
+        <v>1.004791576318079</v>
       </c>
       <c r="O11">
-        <v>1.001854852533693</v>
+        <v>1.005579823112458</v>
       </c>
       <c r="P11">
-        <v>1.001024931235751</v>
+        <v>1.002175128212235</v>
       </c>
       <c r="Q11">
-        <v>1.001024931235751</v>
+        <v>1.002175128212235</v>
       </c>
       <c r="R11">
-        <v>1.000933875903099</v>
+        <v>1.000866904159313</v>
       </c>
       <c r="S11">
-        <v>1.000933875903099</v>
+        <v>1.000866904159313</v>
       </c>
       <c r="T11">
-        <v>0.9997787989004503</v>
+        <v>1.000256653979505</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9805682439368433</v>
+        <v>0.9351647233141258</v>
       </c>
       <c r="D12">
-        <v>1.072518404115789</v>
+        <v>1.243248170639257</v>
       </c>
       <c r="E12">
-        <v>0.9825938187473697</v>
+        <v>0.9414230837539592</v>
       </c>
       <c r="F12">
-        <v>1.072518404115789</v>
+        <v>1.243248170639257</v>
       </c>
       <c r="G12">
-        <v>0.9820032697894749</v>
+        <v>0.9395984854393904</v>
       </c>
       <c r="H12">
-        <v>0.9805682439368433</v>
+        <v>0.9351647233141258</v>
       </c>
       <c r="I12">
-        <v>0.9539693362631553</v>
+        <v>0.8449869547853028</v>
       </c>
       <c r="J12">
-        <v>1.039416350568417</v>
+        <v>1.132338138982971</v>
       </c>
       <c r="K12">
-        <v>0.9805682439368433</v>
+        <v>0.9351647233141258</v>
       </c>
       <c r="L12">
-        <v>0.9825938187473697</v>
+        <v>0.9414230837539592</v>
       </c>
       <c r="M12">
-        <v>1.027556111431579</v>
+        <v>1.092335627196608</v>
       </c>
       <c r="N12">
-        <v>1.027556111431579</v>
+        <v>1.092335627196608</v>
       </c>
       <c r="O12">
-        <v>1.031509524477192</v>
+        <v>1.105669797792062</v>
       </c>
       <c r="P12">
-        <v>1.011893488933334</v>
+        <v>1.039945325902447</v>
       </c>
       <c r="Q12">
-        <v>1.011893488933334</v>
+        <v>1.039945325902447</v>
       </c>
       <c r="R12">
-        <v>1.004062177684211</v>
+        <v>1.013750175255367</v>
       </c>
       <c r="S12">
-        <v>1.004062177684211</v>
+        <v>1.013750175255367</v>
       </c>
       <c r="T12">
-        <v>1.001844903903508</v>
+        <v>1.006126592819168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.011979104896861</v>
+        <v>1.000660709905144</v>
       </c>
       <c r="D13">
-        <v>0.9526347233970922</v>
+        <v>1.004550963423705</v>
       </c>
       <c r="E13">
-        <v>1.011764772874222</v>
+        <v>0.9978631203784024</v>
       </c>
       <c r="F13">
-        <v>0.9526347233970922</v>
+        <v>1.004550963423705</v>
       </c>
       <c r="G13">
-        <v>1.011827257693267</v>
+        <v>0.9986787433150305</v>
       </c>
       <c r="H13">
-        <v>1.011979104896861</v>
+        <v>1.000660709905144</v>
       </c>
       <c r="I13">
-        <v>1.031331896254172</v>
+        <v>0.9937687825814491</v>
       </c>
       <c r="J13">
-        <v>0.9739987026361805</v>
+        <v>1.003150473798971</v>
       </c>
       <c r="K13">
-        <v>1.011979104896861</v>
+        <v>1.000660709905144</v>
       </c>
       <c r="L13">
-        <v>1.011764772874222</v>
+        <v>0.9978631203784024</v>
       </c>
       <c r="M13">
-        <v>0.9821997481356569</v>
+        <v>1.001207041901054</v>
       </c>
       <c r="N13">
-        <v>0.9821997481356569</v>
+        <v>1.001207041901054</v>
       </c>
       <c r="O13">
-        <v>0.9794660663024981</v>
+        <v>1.001854852533693</v>
       </c>
       <c r="P13">
-        <v>0.9921262003893917</v>
+        <v>1.001024931235751</v>
       </c>
       <c r="Q13">
-        <v>0.9921262003893917</v>
+        <v>1.001024931235751</v>
       </c>
       <c r="R13">
-        <v>0.9970894265162591</v>
+        <v>1.000933875903099</v>
       </c>
       <c r="S13">
-        <v>0.9970894265162591</v>
+        <v>1.000933875903099</v>
       </c>
       <c r="T13">
-        <v>0.9989227429586321</v>
+        <v>0.9997787989004503</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.887797470000001</v>
+        <v>0.9805682439368433</v>
       </c>
       <c r="D14">
-        <v>1.420376399999998</v>
+        <v>1.072518404115789</v>
       </c>
       <c r="E14">
-        <v>0.8988550199999995</v>
+        <v>0.9825938187473697</v>
       </c>
       <c r="F14">
-        <v>1.420376399999998</v>
+        <v>1.072518404115789</v>
       </c>
       <c r="G14">
-        <v>0.8956312399999998</v>
+        <v>0.9820032697894749</v>
       </c>
       <c r="H14">
-        <v>0.887797470000001</v>
+        <v>0.9805682439368433</v>
       </c>
       <c r="I14">
-        <v>0.7323862499999992</v>
+        <v>0.9539693362631553</v>
       </c>
       <c r="J14">
-        <v>1.228648000000002</v>
+        <v>1.039416350568417</v>
       </c>
       <c r="K14">
-        <v>0.887797470000001</v>
+        <v>0.9805682439368433</v>
       </c>
       <c r="L14">
-        <v>0.8988550199999995</v>
+        <v>0.9825938187473697</v>
       </c>
       <c r="M14">
-        <v>1.159615709999999</v>
+        <v>1.027556111431579</v>
       </c>
       <c r="N14">
-        <v>1.159615709999999</v>
+        <v>1.027556111431579</v>
       </c>
       <c r="O14">
-        <v>1.182626473333333</v>
+        <v>1.031509524477192</v>
       </c>
       <c r="P14">
-        <v>1.06900963</v>
+        <v>1.011893488933334</v>
       </c>
       <c r="Q14">
-        <v>1.06900963</v>
+        <v>1.011893488933334</v>
       </c>
       <c r="R14">
-        <v>1.02370659</v>
+        <v>1.004062177684211</v>
       </c>
       <c r="S14">
-        <v>1.02370659</v>
+        <v>1.004062177684211</v>
       </c>
       <c r="T14">
-        <v>1.01061573</v>
+        <v>1.001844903903508</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0396018</v>
+        <v>1.011979104896861</v>
       </c>
       <c r="D15">
-        <v>0.88779747</v>
+        <v>0.9526347233970922</v>
       </c>
       <c r="E15">
-        <v>1.0216333</v>
+        <v>1.011764772874222</v>
       </c>
       <c r="F15">
-        <v>0.88779747</v>
+        <v>0.9526347233970922</v>
       </c>
       <c r="G15">
-        <v>1.0268719</v>
+        <v>1.011827257693267</v>
       </c>
       <c r="H15">
-        <v>1.0396018</v>
+        <v>1.011979104896861</v>
       </c>
       <c r="I15">
-        <v>1.0542662</v>
+        <v>1.031331896254172</v>
       </c>
       <c r="J15">
-        <v>0.94244704</v>
+        <v>0.9739987026361805</v>
       </c>
       <c r="K15">
-        <v>1.0396018</v>
+        <v>1.011979104896861</v>
       </c>
       <c r="L15">
-        <v>1.0216333</v>
+        <v>1.011764772874222</v>
       </c>
       <c r="M15">
-        <v>0.954715385</v>
+        <v>0.9821997481356569</v>
       </c>
       <c r="N15">
-        <v>0.954715385</v>
+        <v>0.9821997481356569</v>
       </c>
       <c r="O15">
-        <v>0.9506259366666666</v>
+        <v>0.9794660663024981</v>
       </c>
       <c r="P15">
-        <v>0.9830108566666667</v>
+        <v>0.9921262003893917</v>
       </c>
       <c r="Q15">
-        <v>0.9830108566666667</v>
+        <v>0.9921262003893917</v>
       </c>
       <c r="R15">
-        <v>0.9971585924999999</v>
+        <v>0.9970894265162591</v>
       </c>
       <c r="S15">
-        <v>0.9971585924999999</v>
+        <v>0.9970894265162591</v>
       </c>
       <c r="T15">
-        <v>0.9954362849999999</v>
+        <v>0.9989227429586321</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0396018</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="D16">
-        <v>0.88779747</v>
+        <v>1.420376399999998</v>
       </c>
       <c r="E16">
-        <v>1.0216333</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="F16">
-        <v>0.88779747</v>
+        <v>1.420376399999998</v>
       </c>
       <c r="G16">
-        <v>1.0268719</v>
+        <v>0.8956312399999998</v>
       </c>
       <c r="H16">
-        <v>1.0396018</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="I16">
-        <v>1.0542662</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="J16">
-        <v>0.94244704</v>
+        <v>1.228648000000002</v>
       </c>
       <c r="K16">
-        <v>1.0396018</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="L16">
-        <v>1.0216333</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="M16">
-        <v>0.954715385</v>
+        <v>1.159615709999999</v>
       </c>
       <c r="N16">
-        <v>0.954715385</v>
+        <v>1.159615709999999</v>
       </c>
       <c r="O16">
-        <v>0.9506259366666666</v>
+        <v>1.182626473333333</v>
       </c>
       <c r="P16">
-        <v>0.9830108566666667</v>
+        <v>1.06900963</v>
       </c>
       <c r="Q16">
-        <v>0.9830108566666667</v>
+        <v>1.06900963</v>
       </c>
       <c r="R16">
-        <v>0.9971585924999999</v>
+        <v>1.02370659</v>
       </c>
       <c r="S16">
-        <v>0.9971585924999999</v>
+        <v>1.02370659</v>
       </c>
       <c r="T16">
-        <v>0.9954362849999999</v>
+        <v>1.01061573</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0529286</v>
+        <v>1.0396018</v>
       </c>
       <c r="D17">
-        <v>0.74235861</v>
+        <v>0.88779747</v>
       </c>
       <c r="E17">
-        <v>1.0707891</v>
+        <v>1.0216333</v>
       </c>
       <c r="F17">
-        <v>0.74235861</v>
+        <v>0.88779747</v>
       </c>
       <c r="G17">
-        <v>1.065582</v>
+        <v>1.0268719</v>
       </c>
       <c r="H17">
-        <v>1.0529286</v>
+        <v>1.0396018</v>
       </c>
       <c r="I17">
-        <v>1.192173</v>
+        <v>1.0542662</v>
       </c>
       <c r="J17">
-        <v>0.8541638</v>
+        <v>0.94244704</v>
       </c>
       <c r="K17">
-        <v>1.0529286</v>
+        <v>1.0396018</v>
       </c>
       <c r="L17">
-        <v>1.0707891</v>
+        <v>1.0216333</v>
       </c>
       <c r="M17">
-        <v>0.906573855</v>
+        <v>0.954715385</v>
       </c>
       <c r="N17">
-        <v>0.906573855</v>
+        <v>0.954715385</v>
       </c>
       <c r="O17">
-        <v>0.8891038366666667</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P17">
-        <v>0.95535877</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q17">
-        <v>0.9553587700000001</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R17">
-        <v>0.9797512275000001</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S17">
-        <v>0.9797512275000001</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T17">
-        <v>0.9963325183333335</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9647394016438358</v>
+        <v>1.0396018</v>
       </c>
       <c r="D18">
-        <v>1.150439142876712</v>
+        <v>0.88779747</v>
       </c>
       <c r="E18">
-        <v>0.9610851126027398</v>
+        <v>1.0216333</v>
       </c>
       <c r="F18">
-        <v>1.150439142876712</v>
+        <v>0.88779747</v>
       </c>
       <c r="G18">
-        <v>0.9621504939726021</v>
+        <v>1.0268719</v>
       </c>
       <c r="H18">
-        <v>0.9647394016438358</v>
+        <v>1.0396018</v>
       </c>
       <c r="I18">
-        <v>0.8955308997260273</v>
+        <v>1.0542662</v>
       </c>
       <c r="J18">
-        <v>1.083587248219179</v>
+        <v>0.94244704</v>
       </c>
       <c r="K18">
-        <v>0.9647394016438358</v>
+        <v>1.0396018</v>
       </c>
       <c r="L18">
-        <v>0.9610851126027398</v>
+        <v>1.0216333</v>
       </c>
       <c r="M18">
-        <v>1.055762127739726</v>
+        <v>0.954715385</v>
       </c>
       <c r="N18">
-        <v>1.055762127739726</v>
+        <v>0.954715385</v>
       </c>
       <c r="O18">
-        <v>1.065037167899544</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P18">
-        <v>1.025421219041096</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q18">
-        <v>1.025421219041096</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R18">
-        <v>1.010250764691781</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S18">
-        <v>1.010250764691781</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T18">
-        <v>1.002922049840183</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.003267138421053</v>
+        <v>1.0529286</v>
       </c>
       <c r="D19">
-        <v>0.9737200252631579</v>
+        <v>0.74235861</v>
       </c>
       <c r="E19">
-        <v>1.008404903684211</v>
+        <v>1.0707891</v>
       </c>
       <c r="F19">
-        <v>0.9737200252631579</v>
+        <v>0.74235861</v>
       </c>
       <c r="G19">
-        <v>1.006907015789474</v>
+        <v>1.065582</v>
       </c>
       <c r="H19">
-        <v>1.003267138421053</v>
+        <v>1.0529286</v>
       </c>
       <c r="I19">
-        <v>1.023391712631579</v>
+        <v>1.192173</v>
       </c>
       <c r="J19">
-        <v>0.9843569942105264</v>
+        <v>0.8541638</v>
       </c>
       <c r="K19">
-        <v>1.003267138421053</v>
+        <v>1.0529286</v>
       </c>
       <c r="L19">
-        <v>1.008404903684211</v>
+        <v>1.0707891</v>
       </c>
       <c r="M19">
-        <v>0.9910624644736843</v>
+        <v>0.906573855</v>
       </c>
       <c r="N19">
-        <v>0.9910624644736843</v>
+        <v>0.906573855</v>
       </c>
       <c r="O19">
-        <v>0.9888273077192983</v>
+        <v>0.8891038366666667</v>
       </c>
       <c r="P19">
-        <v>0.995130689122807</v>
+        <v>0.95535877</v>
       </c>
       <c r="Q19">
-        <v>0.995130689122807</v>
+        <v>0.9553587700000001</v>
       </c>
       <c r="R19">
-        <v>0.9971648014473684</v>
+        <v>0.9797512275000001</v>
       </c>
       <c r="S19">
-        <v>0.9971648014473684</v>
+        <v>0.9797512275000001</v>
       </c>
       <c r="T19">
-        <v>1.000007965</v>
+        <v>0.9963325183333335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.003267138421053</v>
+        <v>0.9647394016438358</v>
       </c>
       <c r="D20">
-        <v>0.9737200252631579</v>
+        <v>1.150439142876712</v>
       </c>
       <c r="E20">
-        <v>1.008404903684211</v>
+        <v>0.9610851126027398</v>
       </c>
       <c r="F20">
-        <v>0.9737200252631579</v>
+        <v>1.150439142876712</v>
       </c>
       <c r="G20">
-        <v>1.006907015789474</v>
+        <v>0.9621504939726021</v>
       </c>
       <c r="H20">
-        <v>1.003267138421053</v>
+        <v>0.9647394016438358</v>
       </c>
       <c r="I20">
-        <v>1.023391712631579</v>
+        <v>0.8955308997260273</v>
       </c>
       <c r="J20">
-        <v>0.9843569942105264</v>
+        <v>1.083587248219179</v>
       </c>
       <c r="K20">
-        <v>1.003267138421053</v>
+        <v>0.9647394016438358</v>
       </c>
       <c r="L20">
-        <v>1.008404903684211</v>
+        <v>0.9610851126027398</v>
       </c>
       <c r="M20">
-        <v>0.9910624644736843</v>
+        <v>1.055762127739726</v>
       </c>
       <c r="N20">
-        <v>0.9910624644736843</v>
+        <v>1.055762127739726</v>
       </c>
       <c r="O20">
-        <v>0.9888273077192983</v>
+        <v>1.065037167899544</v>
       </c>
       <c r="P20">
-        <v>0.995130689122807</v>
+        <v>1.025421219041096</v>
       </c>
       <c r="Q20">
-        <v>0.995130689122807</v>
+        <v>1.025421219041096</v>
       </c>
       <c r="R20">
-        <v>0.9971648014473684</v>
+        <v>1.010250764691781</v>
       </c>
       <c r="S20">
-        <v>0.9971648014473684</v>
+        <v>1.010250764691781</v>
       </c>
       <c r="T20">
-        <v>1.000007965</v>
+        <v>1.002922049840183</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.016711760342585</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="D21">
-        <v>0.92505585301876</v>
+        <v>0.9737200252631579</v>
       </c>
       <c r="E21">
-        <v>1.019860629219225</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="F21">
-        <v>0.92505585301876</v>
+        <v>0.9737200252631579</v>
       </c>
       <c r="G21">
-        <v>1.018942583935212</v>
+        <v>1.006907015789474</v>
       </c>
       <c r="H21">
-        <v>1.016711760342585</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="I21">
-        <v>1.053561470836624</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="J21">
-        <v>0.9580519823176037</v>
+        <v>0.9843569942105264</v>
       </c>
       <c r="K21">
-        <v>1.016711760342585</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="L21">
-        <v>1.019860629219225</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="M21">
-        <v>0.9724582411189927</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="N21">
-        <v>0.9724582411189927</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="O21">
-        <v>0.9676561548518631</v>
+        <v>0.9888273077192983</v>
       </c>
       <c r="P21">
-        <v>0.9872094141935234</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="Q21">
-        <v>0.9872094141935234</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="R21">
-        <v>0.9945850007307886</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="S21">
-        <v>0.9945850007307886</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="T21">
-        <v>0.9986973799450016</v>
+        <v>1.000007965</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.005927421620521</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="D22">
-        <v>0.9796151116138746</v>
+        <v>0.9737200252631579</v>
       </c>
       <c r="E22">
-        <v>1.004634448438814</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="F22">
-        <v>0.9796151116138746</v>
+        <v>0.9737200252631579</v>
       </c>
       <c r="G22">
-        <v>1.00501141069853</v>
+        <v>1.006907015789474</v>
       </c>
       <c r="H22">
-        <v>1.005927421620521</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="I22">
-        <v>1.012112248171304</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="J22">
-        <v>0.9890875483263279</v>
+        <v>0.9843569942105264</v>
       </c>
       <c r="K22">
-        <v>1.005927421620521</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="L22">
-        <v>1.004634448438814</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="M22">
-        <v>0.9921247800263444</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="N22">
-        <v>0.9921247800263444</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="O22">
-        <v>0.9911123694596723</v>
+        <v>0.9888273077192983</v>
       </c>
       <c r="P22">
-        <v>0.9967256605577366</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="Q22">
-        <v>0.9967256605577366</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="R22">
-        <v>0.9990261008234327</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="S22">
-        <v>0.9990261008234327</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="T22">
-        <v>0.9993980314782287</v>
+        <v>1.000007965</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.014369839509032</v>
+        <v>1.016711760342585</v>
       </c>
       <c r="D23">
-        <v>0.9637354397832227</v>
+        <v>0.92505585301876</v>
       </c>
       <c r="E23">
-        <v>1.006119641121082</v>
+        <v>1.019860629219225</v>
       </c>
       <c r="F23">
-        <v>0.9637354397832227</v>
+        <v>0.92505585301876</v>
       </c>
       <c r="G23">
-        <v>1.008524948117354</v>
+        <v>1.018942583935212</v>
       </c>
       <c r="H23">
-        <v>1.014369839509032</v>
+        <v>1.016711760342585</v>
       </c>
       <c r="I23">
-        <v>1.014747592515798</v>
+        <v>1.053561470836624</v>
       </c>
       <c r="J23">
-        <v>0.9819638286793322</v>
+        <v>0.9580519823176037</v>
       </c>
       <c r="K23">
-        <v>1.014369839509032</v>
+        <v>1.016711760342585</v>
       </c>
       <c r="L23">
-        <v>1.006119641121082</v>
+        <v>1.019860629219225</v>
       </c>
       <c r="M23">
-        <v>0.9849275404521525</v>
+        <v>0.9724582411189927</v>
       </c>
       <c r="N23">
-        <v>0.9849275404521525</v>
+        <v>0.9724582411189927</v>
       </c>
       <c r="O23">
-        <v>0.9839396365278791</v>
+        <v>0.9676561548518631</v>
       </c>
       <c r="P23">
-        <v>0.994741640137779</v>
+        <v>0.9872094141935234</v>
       </c>
       <c r="Q23">
-        <v>0.994741640137779</v>
+        <v>0.9872094141935234</v>
       </c>
       <c r="R23">
-        <v>0.9996486899805923</v>
+        <v>0.9945850007307886</v>
       </c>
       <c r="S23">
-        <v>0.9996486899805923</v>
+        <v>0.9945850007307886</v>
       </c>
       <c r="T23">
-        <v>0.9982435482876367</v>
+        <v>0.9986973799450016</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9994418808283211</v>
+        <v>1.005927421620521</v>
       </c>
       <c r="D24">
-        <v>0.993306383595565</v>
+        <v>0.9796151116138746</v>
       </c>
       <c r="E24">
-        <v>1.002913139413011</v>
+        <v>1.004634448438814</v>
       </c>
       <c r="F24">
-        <v>0.993306383595565</v>
+        <v>0.9796151116138746</v>
       </c>
       <c r="G24">
-        <v>1.001901106146708</v>
+        <v>1.00501141069853</v>
       </c>
       <c r="H24">
-        <v>0.9994418808283211</v>
+        <v>1.005927421620521</v>
       </c>
       <c r="I24">
-        <v>1.008429562082902</v>
+        <v>1.012112248171304</v>
       </c>
       <c r="J24">
-        <v>0.9955151642948434</v>
+        <v>0.9890875483263279</v>
       </c>
       <c r="K24">
-        <v>0.9994418808283211</v>
+        <v>1.005927421620521</v>
       </c>
       <c r="L24">
-        <v>1.002913139413011</v>
+        <v>1.004634448438814</v>
       </c>
       <c r="M24">
-        <v>0.9981097615042878</v>
+        <v>0.9921247800263444</v>
       </c>
       <c r="N24">
-        <v>0.9981097615042878</v>
+        <v>0.9921247800263444</v>
       </c>
       <c r="O24">
-        <v>0.9972448957678063</v>
+        <v>0.9911123694596723</v>
       </c>
       <c r="P24">
-        <v>0.9985538012789655</v>
+        <v>0.9967256605577366</v>
       </c>
       <c r="Q24">
-        <v>0.9985538012789655</v>
+        <v>0.9967256605577366</v>
       </c>
       <c r="R24">
-        <v>0.9987758211663044</v>
+        <v>0.9990261008234327</v>
       </c>
       <c r="S24">
-        <v>0.9987758211663044</v>
+        <v>0.9990261008234327</v>
       </c>
       <c r="T24">
-        <v>1.000251206060225</v>
+        <v>0.9993980314782287</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.016711760342585</v>
+        <v>1.014369839509032</v>
       </c>
       <c r="D25">
-        <v>0.92505585301876</v>
+        <v>0.9637354397832227</v>
       </c>
       <c r="E25">
-        <v>1.019860629219225</v>
+        <v>1.006119641121082</v>
       </c>
       <c r="F25">
-        <v>0.92505585301876</v>
+        <v>0.9637354397832227</v>
       </c>
       <c r="G25">
-        <v>1.018942583935212</v>
+        <v>1.008524948117354</v>
       </c>
       <c r="H25">
-        <v>1.016711760342585</v>
+        <v>1.014369839509032</v>
       </c>
       <c r="I25">
-        <v>1.053561470836624</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="J25">
-        <v>0.9580519823176035</v>
+        <v>0.9819638286793322</v>
       </c>
       <c r="K25">
-        <v>1.016711760342585</v>
+        <v>1.014369839509032</v>
       </c>
       <c r="L25">
-        <v>1.019860629219225</v>
+        <v>1.006119641121082</v>
       </c>
       <c r="M25">
-        <v>0.9724582411189927</v>
+        <v>0.9849275404521525</v>
       </c>
       <c r="N25">
-        <v>0.9724582411189927</v>
+        <v>0.9849275404521525</v>
       </c>
       <c r="O25">
-        <v>0.9676561548518631</v>
+        <v>0.9839396365278791</v>
       </c>
       <c r="P25">
-        <v>0.9872094141935234</v>
+        <v>0.994741640137779</v>
       </c>
       <c r="Q25">
-        <v>0.9872094141935234</v>
+        <v>0.994741640137779</v>
       </c>
       <c r="R25">
-        <v>0.9945850007307886</v>
+        <v>0.9996486899805923</v>
       </c>
       <c r="S25">
-        <v>0.9945850007307886</v>
+        <v>0.9996486899805923</v>
       </c>
       <c r="T25">
-        <v>0.9986973799450016</v>
+        <v>0.9982435482876367</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.005927421620521</v>
+        <v>0.9994418808283211</v>
       </c>
       <c r="D26">
-        <v>0.9796151116138745</v>
+        <v>0.993306383595565</v>
       </c>
       <c r="E26">
-        <v>1.004634448438814</v>
+        <v>1.002913139413011</v>
       </c>
       <c r="F26">
-        <v>0.9796151116138745</v>
+        <v>0.993306383595565</v>
       </c>
       <c r="G26">
-        <v>1.00501141069853</v>
+        <v>1.001901106146708</v>
       </c>
       <c r="H26">
-        <v>1.005927421620521</v>
+        <v>0.9994418808283211</v>
       </c>
       <c r="I26">
-        <v>1.012112248171304</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="J26">
-        <v>0.9890875483263279</v>
+        <v>0.9955151642948434</v>
       </c>
       <c r="K26">
-        <v>1.005927421620521</v>
+        <v>0.9994418808283211</v>
       </c>
       <c r="L26">
-        <v>1.004634448438814</v>
+        <v>1.002913139413011</v>
       </c>
       <c r="M26">
-        <v>0.9921247800263444</v>
+        <v>0.9981097615042878</v>
       </c>
       <c r="N26">
-        <v>0.9921247800263444</v>
+        <v>0.9981097615042878</v>
       </c>
       <c r="O26">
-        <v>0.9911123694596723</v>
+        <v>0.9972448957678063</v>
       </c>
       <c r="P26">
-        <v>0.9967256605577366</v>
+        <v>0.9985538012789655</v>
       </c>
       <c r="Q26">
-        <v>0.9967256605577366</v>
+        <v>0.9985538012789655</v>
       </c>
       <c r="R26">
-        <v>0.9990261008234327</v>
+        <v>0.9987758211663044</v>
       </c>
       <c r="S26">
-        <v>0.9990261008234327</v>
+        <v>0.9987758211663044</v>
       </c>
       <c r="T26">
-        <v>0.9993980314782287</v>
+        <v>1.000251206060225</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9940048457138401</v>
+        <v>1.016711760342585</v>
       </c>
       <c r="D27">
-        <v>1.024628540296642</v>
+        <v>0.92505585301876</v>
       </c>
       <c r="E27">
-        <v>0.993752856513907</v>
+        <v>1.019860629219225</v>
       </c>
       <c r="F27">
-        <v>1.024628540296642</v>
+        <v>0.92505585301876</v>
       </c>
       <c r="G27">
-        <v>0.9938263331648726</v>
+        <v>1.018942583935212</v>
       </c>
       <c r="H27">
-        <v>0.9940048457138401</v>
+        <v>1.016711760342585</v>
       </c>
       <c r="I27">
-        <v>0.9832929756841892</v>
+        <v>1.053561470836624</v>
       </c>
       <c r="J27">
-        <v>1.013604036647411</v>
+        <v>0.9580519823176035</v>
       </c>
       <c r="K27">
-        <v>0.9940048457138401</v>
+        <v>1.016711760342585</v>
       </c>
       <c r="L27">
-        <v>0.993752856513907</v>
+        <v>1.019860629219225</v>
       </c>
       <c r="M27">
-        <v>1.009190698405275</v>
+        <v>0.9724582411189927</v>
       </c>
       <c r="N27">
-        <v>1.009190698405275</v>
+        <v>0.9724582411189927</v>
       </c>
       <c r="O27">
-        <v>1.010661811152654</v>
+        <v>0.9676561548518631</v>
       </c>
       <c r="P27">
-        <v>1.00412874750813</v>
+        <v>0.9872094141935234</v>
       </c>
       <c r="Q27">
-        <v>1.00412874750813</v>
+        <v>0.9872094141935234</v>
       </c>
       <c r="R27">
-        <v>1.001597772059557</v>
+        <v>0.9945850007307886</v>
       </c>
       <c r="S27">
-        <v>1.001597772059557</v>
+        <v>0.9945850007307886</v>
       </c>
       <c r="T27">
-        <v>1.000518264670144</v>
+        <v>0.9986973799450016</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.004206177357031</v>
+        <v>1.005927421620521</v>
       </c>
       <c r="D28">
-        <v>0.9800377669415868</v>
+        <v>0.9796151116138745</v>
       </c>
       <c r="E28">
-        <v>1.00542631967567</v>
+        <v>1.004634448438814</v>
       </c>
       <c r="F28">
-        <v>0.9800377669415868</v>
+        <v>0.9796151116138745</v>
       </c>
       <c r="G28">
-        <v>1.00507058806909</v>
+        <v>1.00501141069853</v>
       </c>
       <c r="H28">
-        <v>1.004206177357031</v>
+        <v>1.005927421620521</v>
       </c>
       <c r="I28">
-        <v>1.014702606372148</v>
+        <v>1.012112248171304</v>
       </c>
       <c r="J28">
-        <v>0.9887383972827868</v>
+        <v>0.9890875483263279</v>
       </c>
       <c r="K28">
-        <v>1.004206177357031</v>
+        <v>1.005927421620521</v>
       </c>
       <c r="L28">
-        <v>1.00542631967567</v>
+        <v>1.004634448438814</v>
       </c>
       <c r="M28">
-        <v>0.9927320433086284</v>
+        <v>0.9921247800263444</v>
       </c>
       <c r="N28">
-        <v>0.9927320433086284</v>
+        <v>0.9921247800263444</v>
       </c>
       <c r="O28">
-        <v>0.9914008279666812</v>
+        <v>0.9911123694596723</v>
       </c>
       <c r="P28">
-        <v>0.996556754658096</v>
+        <v>0.9967256605577366</v>
       </c>
       <c r="Q28">
-        <v>0.996556754658096</v>
+        <v>0.9967256605577366</v>
       </c>
       <c r="R28">
-        <v>0.9984691103328298</v>
+        <v>0.9990261008234327</v>
       </c>
       <c r="S28">
-        <v>0.9984691103328298</v>
+        <v>0.9990261008234327</v>
       </c>
       <c r="T28">
-        <v>0.9996969759497188</v>
+        <v>0.9993980314782287</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="D29">
+        <v>1.024628540296642</v>
+      </c>
+      <c r="E29">
+        <v>0.993752856513907</v>
+      </c>
+      <c r="F29">
+        <v>1.024628540296642</v>
+      </c>
+      <c r="G29">
+        <v>0.9938263331648726</v>
+      </c>
+      <c r="H29">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="I29">
+        <v>0.9832929756841892</v>
+      </c>
+      <c r="J29">
+        <v>1.013604036647411</v>
+      </c>
+      <c r="K29">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="L29">
+        <v>0.993752856513907</v>
+      </c>
+      <c r="M29">
+        <v>1.009190698405275</v>
+      </c>
+      <c r="N29">
+        <v>1.009190698405275</v>
+      </c>
+      <c r="O29">
+        <v>1.010661811152654</v>
+      </c>
+      <c r="P29">
+        <v>1.00412874750813</v>
+      </c>
+      <c r="Q29">
+        <v>1.00412874750813</v>
+      </c>
+      <c r="R29">
+        <v>1.001597772059557</v>
+      </c>
+      <c r="S29">
+        <v>1.001597772059557</v>
+      </c>
+      <c r="T29">
+        <v>1.000518264670144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.004206177357031</v>
+      </c>
+      <c r="D30">
+        <v>0.9800377669415868</v>
+      </c>
+      <c r="E30">
+        <v>1.00542631967567</v>
+      </c>
+      <c r="F30">
+        <v>0.9800377669415868</v>
+      </c>
+      <c r="G30">
+        <v>1.00507058806909</v>
+      </c>
+      <c r="H30">
+        <v>1.004206177357031</v>
+      </c>
+      <c r="I30">
+        <v>1.014702606372148</v>
+      </c>
+      <c r="J30">
+        <v>0.9887383972827868</v>
+      </c>
+      <c r="K30">
+        <v>1.004206177357031</v>
+      </c>
+      <c r="L30">
+        <v>1.00542631967567</v>
+      </c>
+      <c r="M30">
+        <v>0.9927320433086284</v>
+      </c>
+      <c r="N30">
+        <v>0.9927320433086284</v>
+      </c>
+      <c r="O30">
+        <v>0.9914008279666812</v>
+      </c>
+      <c r="P30">
+        <v>0.996556754658096</v>
+      </c>
+      <c r="Q30">
+        <v>0.996556754658096</v>
+      </c>
+      <c r="R30">
+        <v>0.9984691103328298</v>
+      </c>
+      <c r="S30">
+        <v>0.9984691103328298</v>
+      </c>
+      <c r="T30">
+        <v>0.9996969759497188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.0224492588546</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.90508485385094</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.024439629936537</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.90508485385094</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.023859330132079</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.0224492588546</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.065551477858134</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.947336042295006</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.0224492588546</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.024439629936537</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9647622418937387</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9647622418937387</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9589535086941612</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9839912475473592</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9839912475473592</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9936057503741695</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9936057503741695</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9981200988212162</v>
       </c>
     </row>
